--- a/data_month/zb/房地产/办公楼施工、竣工面积.xlsx
+++ b/data_month/zb/房地产/办公楼施工、竣工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>办公楼竣工面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼新开工施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼施工面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -483,11 +498,20 @@
         <v>321.75</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>564.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3748.65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>321.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -502,11 +526,20 @@
         <v>383.07</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>54.34000000000003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3746.37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>61.31999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -521,5582 +554,7670 @@
         <v>873.6900000000001</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>247.48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>381.4800000000005</v>
+      </c>
+      <c r="J4" t="n">
+        <v>490.6200000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>762.98</v>
+        <v>67.88</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3511.87</v>
+        <v>1654.18</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>307.15</v>
+        <v>27.05</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>67.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1654.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.5</v>
+        <v>170.5</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>3609.51</v>
+        <v>2266.64</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>355.21</v>
+        <v>59.14</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="I6" t="n">
+        <v>612.4599999999998</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1085.07</v>
+        <v>243.8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>4224.78</v>
+        <v>2529.34</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>891.1</v>
+        <v>77.67</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>73.30000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>262.7000000000003</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.88</v>
+        <v>319.74</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1654.18</v>
+        <v>2737.73</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>27.05</v>
+        <v>106.7</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="I8" t="n">
+        <v>208.3899999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.5</v>
+        <v>432.94</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2266.64</v>
+        <v>2954.45</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>59.14</v>
+        <v>151.08</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>216.7199999999998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>44.38000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243.8</v>
+        <v>530.25</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2529.34</v>
+        <v>3139.95</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>77.67</v>
+        <v>180.19</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.10999999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.74</v>
+        <v>598.33</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2737.73</v>
+        <v>3265.87</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>106.7</v>
+        <v>233.86</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>68.08000000000004</v>
+      </c>
+      <c r="I11" t="n">
+        <v>125.9200000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53.67000000000002</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>432.94</v>
+        <v>669.48</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2954.45</v>
+        <v>3376.95</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>151.08</v>
+        <v>264.27</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>71.14999999999998</v>
+      </c>
+      <c r="I12" t="n">
+        <v>111.0799999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>30.40999999999997</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.25</v>
+        <v>762.98</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>3139.95</v>
+        <v>3511.87</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>180.19</v>
+        <v>307.15</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>134.9200000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>598.33</v>
+        <v>841.5</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>3265.87</v>
+        <v>3609.51</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>233.86</v>
+        <v>355.21</v>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>78.51999999999998</v>
+      </c>
+      <c r="I14" t="n">
+        <v>97.64000000000033</v>
+      </c>
+      <c r="J14" t="n">
+        <v>48.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.48</v>
+        <v>1085.07</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>3376.95</v>
+        <v>4224.78</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>264.27</v>
+        <v>891.1</v>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>243.5699999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>615.2699999999995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>535.8900000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>927.2</v>
+        <v>174.98</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>3701.15</v>
+        <v>1812.44</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>363.05</v>
+        <v>19.82</v>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>174.98</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1812.44</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19.82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1026.55</v>
+        <v>255.6</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>3830.81</v>
+        <v>2363.13</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>425.56</v>
+        <v>79.12</v>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="I17" t="n">
+        <v>550.6900000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>59.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1288.28</v>
+        <v>322.85</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>4416.4</v>
+        <v>2550.23</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>971.45</v>
+        <v>107.44</v>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>67.25000000000003</v>
+      </c>
+      <c r="I18" t="n">
+        <v>187.0999999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>28.31999999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.98</v>
+        <v>431.92</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1812.44</v>
+        <v>2807.12</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>19.82</v>
+        <v>117.33</v>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="I19" t="n">
+        <v>256.8899999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.890000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255.6</v>
+        <v>532.77</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>2363.13</v>
+        <v>3056.32</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>79.12</v>
+        <v>159.22</v>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>100.85</v>
+      </c>
+      <c r="I20" t="n">
+        <v>249.2000000000003</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>322.85</v>
+        <v>632.5</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>2550.23</v>
+        <v>3226.19</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>107.44</v>
+        <v>196.72</v>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>99.73000000000002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>169.8699999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.92</v>
+        <v>727.8099999999999</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>2807.12</v>
+        <v>3371.83</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>117.33</v>
+        <v>256.66</v>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>95.30999999999995</v>
+      </c>
+      <c r="I22" t="n">
+        <v>145.6399999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>59.94000000000003</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>532.77</v>
+        <v>862.28</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>3056.32</v>
+        <v>3568.7</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>159.22</v>
+        <v>307.31</v>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="I23" t="n">
+        <v>196.8699999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>50.64999999999998</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>632.5</v>
+        <v>927.2</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>3226.19</v>
+        <v>3701.15</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>196.72</v>
+        <v>363.05</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>64.92000000000007</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132.4500000000003</v>
+      </c>
+      <c r="J24" t="n">
+        <v>55.74000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.8099999999999</v>
+        <v>1026.55</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>3371.83</v>
+        <v>3830.81</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>256.66</v>
+        <v>425.56</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>99.34999999999991</v>
+      </c>
+      <c r="I25" t="n">
+        <v>129.6599999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>62.50999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>862.28</v>
+        <v>1288.28</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>3568.7</v>
+        <v>4416.4</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>307.31</v>
+        <v>971.45</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>261.73</v>
+      </c>
+      <c r="I26" t="n">
+        <v>585.5899999999997</v>
+      </c>
+      <c r="J26" t="n">
+        <v>545.8900000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1003.53</v>
+        <v>135.14</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>4269.4</v>
+        <v>1768.98</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>400.02</v>
+        <v>38.99</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1768.98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38.99</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.75</v>
+        <v>195.32</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>4475.44</v>
+        <v>2468.95</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>459.8</v>
+        <v>77.39</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>60.18000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>699.9699999999998</v>
+      </c>
+      <c r="J28" t="n">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1425.06</v>
+        <v>295.51</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>5064.76</v>
+        <v>2939.62</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1050.55</v>
+        <v>102.41</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>100.19</v>
+      </c>
+      <c r="I29" t="n">
+        <v>470.6700000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25.02</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.14</v>
+        <v>388.45</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1768.98</v>
+        <v>3215.72</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>38.99</v>
+        <v>130.56</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>92.94</v>
+      </c>
+      <c r="I30" t="n">
+        <v>276.0999999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28.15000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.32</v>
+        <v>538.21</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>2468.95</v>
+        <v>3531.87</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>77.39</v>
+        <v>205.59</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="I31" t="n">
+        <v>316.1500000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>75.03</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.51</v>
+        <v>671.0700000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>2939.62</v>
+        <v>3815.52</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>102.41</v>
+        <v>252.61</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>132.86</v>
+      </c>
+      <c r="I32" t="n">
+        <v>283.6500000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>47.02000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>388.45</v>
+        <v>802.37</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>3215.72</v>
+        <v>3947.95</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>130.56</v>
+        <v>307.07</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>132.4299999999998</v>
+      </c>
+      <c r="J33" t="n">
+        <v>54.45999999999998</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.21</v>
+        <v>931.26</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>3531.87</v>
+        <v>4143.36</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>205.59</v>
+        <v>345.85</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>128.89</v>
+      </c>
+      <c r="I34" t="n">
+        <v>195.4099999999999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>38.78000000000003</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>671.0700000000001</v>
+        <v>1003.53</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>3815.52</v>
+        <v>4269.4</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>252.61</v>
+        <v>400.02</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>72.26999999999998</v>
+      </c>
+      <c r="I35" t="n">
+        <v>126.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>54.16999999999996</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>802.37</v>
+        <v>1182.75</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>3947.95</v>
+        <v>4475.44</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>307.07</v>
+        <v>459.8</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>179.22</v>
+      </c>
+      <c r="I36" t="n">
+        <v>206.04</v>
+      </c>
+      <c r="J36" t="n">
+        <v>59.78000000000003</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.26</v>
+        <v>1425.06</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>4143.36</v>
+        <v>5064.76</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>345.85</v>
+        <v>1050.55</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>242.3099999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>589.3200000000006</v>
+      </c>
+      <c r="J37" t="n">
+        <v>590.75</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1217.98</v>
+        <v>207.33</v>
       </c>
       <c r="C38" t="n">
-        <v>21.5</v>
+        <v>53.2</v>
       </c>
       <c r="D38" t="n">
-        <v>5194.89</v>
+        <v>2566.86</v>
       </c>
       <c r="E38" t="n">
-        <v>21.7</v>
+        <v>45.1</v>
       </c>
       <c r="F38" t="n">
-        <v>484.75</v>
+        <v>38.18</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9</v>
+        <v>-2.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>207.33</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2566.86</v>
+      </c>
+      <c r="J38" t="n">
+        <v>38.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.9</v>
+        <v>306.66</v>
       </c>
       <c r="C39" t="n">
-        <v>11.5</v>
+        <v>56.9</v>
       </c>
       <c r="D39" t="n">
-        <v>5338.21</v>
+        <v>3166.4</v>
       </c>
       <c r="E39" t="n">
-        <v>19.4</v>
+        <v>28</v>
       </c>
       <c r="F39" t="n">
-        <v>574.45</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>25.6</v>
+        <v>28.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>99.33000000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>599.54</v>
+      </c>
+      <c r="J39" t="n">
+        <v>60.77999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1704.19</v>
+        <v>435.81</v>
       </c>
       <c r="C40" t="n">
-        <v>16.1</v>
+        <v>47.3</v>
       </c>
       <c r="D40" t="n">
-        <v>5982.43</v>
+        <v>3568.38</v>
       </c>
       <c r="E40" t="n">
-        <v>17.4</v>
+        <v>21.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1034.6</v>
+        <v>145.73</v>
       </c>
       <c r="G40" t="n">
-        <v>-4</v>
+        <v>42.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>129.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>401.98</v>
+      </c>
+      <c r="J40" t="n">
+        <v>46.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>207.33</v>
+        <v>619.76</v>
       </c>
       <c r="C41" t="n">
-        <v>53.2</v>
+        <v>59.5</v>
       </c>
       <c r="D41" t="n">
-        <v>2566.86</v>
+        <v>4038.65</v>
       </c>
       <c r="E41" t="n">
-        <v>45.1</v>
+        <v>25.5</v>
       </c>
       <c r="F41" t="n">
-        <v>38.18</v>
+        <v>204.97</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.8</v>
+        <v>57.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>183.95</v>
+      </c>
+      <c r="I41" t="n">
+        <v>470.27</v>
+      </c>
+      <c r="J41" t="n">
+        <v>59.24000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>306.66</v>
+        <v>763.62</v>
       </c>
       <c r="C42" t="n">
-        <v>56.9</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>3166.4</v>
+        <v>4392.29</v>
       </c>
       <c r="E42" t="n">
-        <v>28</v>
+        <v>24.4</v>
       </c>
       <c r="F42" t="n">
-        <v>98.95999999999999</v>
+        <v>249.36</v>
       </c>
       <c r="G42" t="n">
-        <v>28.2</v>
+        <v>21.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>143.86</v>
+      </c>
+      <c r="I42" t="n">
+        <v>353.6399999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44.39000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>435.81</v>
+        <v>886.05</v>
       </c>
       <c r="C43" t="n">
-        <v>47.3</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>3568.38</v>
+        <v>4628.31</v>
       </c>
       <c r="E43" t="n">
         <v>21.3</v>
       </c>
       <c r="F43" t="n">
-        <v>145.73</v>
+        <v>320.92</v>
       </c>
       <c r="G43" t="n">
-        <v>42.5</v>
+        <v>27.4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>122.4299999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>236.0200000000004</v>
+      </c>
+      <c r="J43" t="n">
+        <v>71.56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>619.76</v>
+        <v>996.89</v>
       </c>
       <c r="C44" t="n">
-        <v>59.5</v>
+        <v>24.5</v>
       </c>
       <c r="D44" t="n">
-        <v>4038.65</v>
+        <v>4871.78</v>
       </c>
       <c r="E44" t="n">
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="F44" t="n">
-        <v>204.97</v>
+        <v>360.44</v>
       </c>
       <c r="G44" t="n">
-        <v>57.8</v>
+        <v>18</v>
+      </c>
+      <c r="H44" t="n">
+        <v>110.84</v>
+      </c>
+      <c r="I44" t="n">
+        <v>243.4699999999993</v>
+      </c>
+      <c r="J44" t="n">
+        <v>39.51999999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>763.62</v>
+        <v>1112.32</v>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>19.8</v>
       </c>
       <c r="D45" t="n">
-        <v>4392.29</v>
+        <v>5078.83</v>
       </c>
       <c r="E45" t="n">
-        <v>24.4</v>
+        <v>22.7</v>
       </c>
       <c r="F45" t="n">
-        <v>249.36</v>
+        <v>407.74</v>
       </c>
       <c r="G45" t="n">
-        <v>21.4</v>
+        <v>18.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>115.4299999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>207.0500000000002</v>
+      </c>
+      <c r="J45" t="n">
+        <v>47.30000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>886.05</v>
+        <v>1217.98</v>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>21.5</v>
       </c>
       <c r="D46" t="n">
-        <v>4628.31</v>
+        <v>5194.89</v>
       </c>
       <c r="E46" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="F46" t="n">
-        <v>320.92</v>
+        <v>484.75</v>
       </c>
       <c r="G46" t="n">
-        <v>27.4</v>
+        <v>21.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>105.6600000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>116.0600000000004</v>
+      </c>
+      <c r="J46" t="n">
+        <v>77.00999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>996.89</v>
+        <v>1315.9</v>
       </c>
       <c r="C47" t="n">
-        <v>24.5</v>
+        <v>11.5</v>
       </c>
       <c r="D47" t="n">
-        <v>4871.78</v>
+        <v>5338.21</v>
       </c>
       <c r="E47" t="n">
-        <v>23.5</v>
+        <v>19.4</v>
       </c>
       <c r="F47" t="n">
-        <v>360.44</v>
+        <v>574.45</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>25.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>97.92000000000007</v>
+      </c>
+      <c r="I47" t="n">
+        <v>143.3199999999997</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89.70000000000005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1112.32</v>
+        <v>1704.19</v>
       </c>
       <c r="C48" t="n">
-        <v>19.8</v>
+        <v>16.1</v>
       </c>
       <c r="D48" t="n">
-        <v>5078.83</v>
+        <v>5982.43</v>
       </c>
       <c r="E48" t="n">
-        <v>22.7</v>
+        <v>17.4</v>
       </c>
       <c r="F48" t="n">
-        <v>407.74</v>
+        <v>1034.6</v>
       </c>
       <c r="G48" t="n">
-        <v>18.5</v>
+        <v>-4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="I48" t="n">
+        <v>644.2200000000003</v>
+      </c>
+      <c r="J48" t="n">
+        <v>460.1499999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1175.49</v>
+        <v>183.6</v>
       </c>
       <c r="C49" t="n">
-        <v>-3.6</v>
+        <v>-11.4</v>
       </c>
       <c r="D49" t="n">
-        <v>5773.23</v>
+        <v>3058.67</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>18.7</v>
       </c>
       <c r="F49" t="n">
-        <v>558.4299999999999</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>14.7</v>
+        <v>86.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3058.67</v>
+      </c>
+      <c r="J49" t="n">
+        <v>71.06999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1330.38</v>
+        <v>412.8</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>34.6</v>
       </c>
       <c r="D50" t="n">
-        <v>6008.77</v>
+        <v>3819.21</v>
       </c>
       <c r="E50" t="n">
-        <v>12.4</v>
+        <v>20.6</v>
       </c>
       <c r="F50" t="n">
-        <v>661.16</v>
+        <v>116</v>
       </c>
       <c r="G50" t="n">
-        <v>14.7</v>
+        <v>17.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>760.54</v>
+      </c>
+      <c r="J50" t="n">
+        <v>44.93000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1669.75</v>
+        <v>518.15</v>
       </c>
       <c r="C51" t="n">
-        <v>-2</v>
+        <v>18.9</v>
       </c>
       <c r="D51" t="n">
-        <v>6587.08</v>
+        <v>4381.74</v>
       </c>
       <c r="E51" t="n">
-        <v>10.1</v>
+        <v>22.8</v>
       </c>
       <c r="F51" t="n">
-        <v>1258.96</v>
+        <v>171.72</v>
       </c>
       <c r="G51" t="n">
-        <v>21.7</v>
+        <v>17.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>105.35</v>
+      </c>
+      <c r="I51" t="n">
+        <v>562.5299999999997</v>
+      </c>
+      <c r="J51" t="n">
+        <v>55.72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>183.6</v>
+        <v>598.3</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.4</v>
+        <v>-3.5</v>
       </c>
       <c r="D52" t="n">
-        <v>3058.67</v>
+        <v>4676.77</v>
       </c>
       <c r="E52" t="n">
-        <v>18.7</v>
+        <v>15.8</v>
       </c>
       <c r="F52" t="n">
-        <v>71.06999999999999</v>
+        <v>216.4</v>
       </c>
       <c r="G52" t="n">
-        <v>86.2</v>
+        <v>5.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80.14999999999998</v>
+      </c>
+      <c r="I52" t="n">
+        <v>295.0300000000007</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44.68000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>412.8</v>
+        <v>720.27</v>
       </c>
       <c r="C53" t="n">
-        <v>34.6</v>
+        <v>-6</v>
       </c>
       <c r="D53" t="n">
-        <v>3819.21</v>
+        <v>4982.37</v>
       </c>
       <c r="E53" t="n">
-        <v>20.6</v>
+        <v>13.3</v>
       </c>
       <c r="F53" t="n">
-        <v>116</v>
+        <v>263.41</v>
       </c>
       <c r="G53" t="n">
-        <v>17.2</v>
+        <v>5.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>121.97</v>
+      </c>
+      <c r="I53" t="n">
+        <v>305.5999999999995</v>
+      </c>
+      <c r="J53" t="n">
+        <v>47.01000000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>518.15</v>
+        <v>865.62</v>
       </c>
       <c r="C54" t="n">
-        <v>18.9</v>
+        <v>-2.5</v>
       </c>
       <c r="D54" t="n">
-        <v>4381.74</v>
+        <v>5240.49</v>
       </c>
       <c r="E54" t="n">
-        <v>22.8</v>
+        <v>13.1</v>
       </c>
       <c r="F54" t="n">
-        <v>171.72</v>
+        <v>370.66</v>
       </c>
       <c r="G54" t="n">
-        <v>17.8</v>
+        <v>15.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>145.35</v>
+      </c>
+      <c r="I54" t="n">
+        <v>258.1199999999999</v>
+      </c>
+      <c r="J54" t="n">
+        <v>107.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>598.3</v>
+        <v>977.12</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.5</v>
+        <v>-2.1</v>
       </c>
       <c r="D55" t="n">
-        <v>4676.77</v>
+        <v>5415.3</v>
       </c>
       <c r="E55" t="n">
-        <v>15.8</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>216.4</v>
+        <v>424.95</v>
       </c>
       <c r="G55" t="n">
-        <v>5.3</v>
+        <v>17.5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>174.8100000000004</v>
+      </c>
+      <c r="J55" t="n">
+        <v>54.28999999999996</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>720.27</v>
+        <v>1094.62</v>
       </c>
       <c r="C56" t="n">
-        <v>-6</v>
+        <v>-1.6</v>
       </c>
       <c r="D56" t="n">
-        <v>4982.37</v>
+        <v>5643.37</v>
       </c>
       <c r="E56" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="F56" t="n">
-        <v>263.41</v>
+        <v>501.97</v>
       </c>
       <c r="G56" t="n">
-        <v>5.6</v>
+        <v>23.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>117.4999999999999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>228.0699999999997</v>
+      </c>
+      <c r="J56" t="n">
+        <v>77.02000000000004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>865.62</v>
+        <v>1175.49</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.5</v>
+        <v>-3.6</v>
       </c>
       <c r="D57" t="n">
-        <v>5240.49</v>
+        <v>5773.23</v>
       </c>
       <c r="E57" t="n">
-        <v>13.1</v>
+        <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>370.66</v>
+        <v>558.4299999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>80.87000000000012</v>
+      </c>
+      <c r="I57" t="n">
+        <v>129.8599999999997</v>
+      </c>
+      <c r="J57" t="n">
+        <v>56.45999999999992</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>977.12</v>
+        <v>1330.38</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.1</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>5415.3</v>
+        <v>6008.77</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>12.4</v>
       </c>
       <c r="F58" t="n">
-        <v>424.95</v>
+        <v>661.16</v>
       </c>
       <c r="G58" t="n">
-        <v>17.5</v>
+        <v>14.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>154.8900000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>235.5400000000009</v>
+      </c>
+      <c r="J58" t="n">
+        <v>102.73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1094.62</v>
+        <v>1669.75</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="n">
-        <v>5643.37</v>
+        <v>6587.08</v>
       </c>
       <c r="E59" t="n">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="F59" t="n">
-        <v>501.97</v>
+        <v>1258.96</v>
       </c>
       <c r="G59" t="n">
-        <v>23.1</v>
+        <v>21.7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>339.3699999999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>578.3099999999995</v>
+      </c>
+      <c r="J59" t="n">
+        <v>597.8000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1525.85</v>
+        <v>312.19</v>
       </c>
       <c r="C60" t="n">
-        <v>29.8</v>
+        <v>70</v>
       </c>
       <c r="D60" t="n">
-        <v>6525.25</v>
+        <v>3628.31</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>18.6</v>
       </c>
       <c r="F60" t="n">
-        <v>553.48</v>
+        <v>119.29</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.9</v>
+        <v>67.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>312.19</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3628.31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>119.29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1671.95</v>
+        <v>475.97</v>
       </c>
       <c r="C61" t="n">
-        <v>25.7</v>
+        <v>15.3</v>
       </c>
       <c r="D61" t="n">
-        <v>6697.56</v>
+        <v>4469.31</v>
       </c>
       <c r="E61" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>690.52</v>
+        <v>175.31</v>
       </c>
       <c r="G61" t="n">
-        <v>4.4</v>
+        <v>51.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>163.78</v>
+      </c>
+      <c r="I61" t="n">
+        <v>841.0000000000005</v>
+      </c>
+      <c r="J61" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2108.9</v>
+        <v>650.23</v>
       </c>
       <c r="C62" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="D62" t="n">
-        <v>7366.33</v>
+        <v>5017.22</v>
       </c>
       <c r="E62" t="n">
-        <v>11.3</v>
+        <v>14.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1335.78</v>
+        <v>217.18</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.7</v>
+        <v>26.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>174.26</v>
+      </c>
+      <c r="I62" t="n">
+        <v>547.9099999999999</v>
+      </c>
+      <c r="J62" t="n">
+        <v>41.87</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>312.19</v>
+        <v>827.61</v>
       </c>
       <c r="C63" t="n">
-        <v>70</v>
+        <v>38.3</v>
       </c>
       <c r="D63" t="n">
-        <v>3628.31</v>
+        <v>5500.38</v>
       </c>
       <c r="E63" t="n">
-        <v>18.6</v>
+        <v>17.6</v>
       </c>
       <c r="F63" t="n">
-        <v>119.29</v>
+        <v>273.74</v>
       </c>
       <c r="G63" t="n">
-        <v>67.8</v>
+        <v>26.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>177.38</v>
+      </c>
+      <c r="I63" t="n">
+        <v>483.1599999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>56.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>475.97</v>
+        <v>1017.14</v>
       </c>
       <c r="C64" t="n">
-        <v>15.3</v>
+        <v>41.2</v>
       </c>
       <c r="D64" t="n">
-        <v>4469.31</v>
+        <v>5770.21</v>
       </c>
       <c r="E64" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>175.31</v>
+        <v>319.53</v>
       </c>
       <c r="G64" t="n">
-        <v>51.1</v>
+        <v>21.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>189.53</v>
+      </c>
+      <c r="I64" t="n">
+        <v>269.8299999999999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>45.78999999999996</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>650.23</v>
+        <v>1123.46</v>
       </c>
       <c r="C65" t="n">
-        <v>25.5</v>
+        <v>29.8</v>
       </c>
       <c r="D65" t="n">
-        <v>5017.22</v>
+        <v>5964.6</v>
       </c>
       <c r="E65" t="n">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="F65" t="n">
-        <v>217.18</v>
+        <v>407.72</v>
       </c>
       <c r="G65" t="n">
-        <v>26.5</v>
+        <v>10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>106.3200000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>194.3900000000003</v>
+      </c>
+      <c r="J65" t="n">
+        <v>88.19000000000005</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>827.61</v>
+        <v>1225.73</v>
       </c>
       <c r="C66" t="n">
-        <v>38.3</v>
+        <v>25.4</v>
       </c>
       <c r="D66" t="n">
-        <v>5500.38</v>
+        <v>6133.59</v>
       </c>
       <c r="E66" t="n">
-        <v>17.6</v>
+        <v>13.3</v>
       </c>
       <c r="F66" t="n">
-        <v>273.74</v>
+        <v>443.85</v>
       </c>
       <c r="G66" t="n">
-        <v>26.5</v>
+        <v>4.4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>102.27</v>
+      </c>
+      <c r="I66" t="n">
+        <v>168.9899999999998</v>
+      </c>
+      <c r="J66" t="n">
+        <v>36.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1017.14</v>
+        <v>1397.26</v>
       </c>
       <c r="C67" t="n">
-        <v>41.2</v>
+        <v>27.6</v>
       </c>
       <c r="D67" t="n">
-        <v>5770.21</v>
+        <v>6359.62</v>
       </c>
       <c r="E67" t="n">
-        <v>15.8</v>
+        <v>12.7</v>
       </c>
       <c r="F67" t="n">
-        <v>319.53</v>
+        <v>505.46</v>
       </c>
       <c r="G67" t="n">
-        <v>21.3</v>
+        <v>0.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>171.53</v>
+      </c>
+      <c r="I67" t="n">
+        <v>226.0299999999997</v>
+      </c>
+      <c r="J67" t="n">
+        <v>61.60999999999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1123.46</v>
+        <v>1525.85</v>
       </c>
       <c r="C68" t="n">
         <v>29.8</v>
       </c>
       <c r="D68" t="n">
-        <v>5964.6</v>
+        <v>6525.25</v>
       </c>
       <c r="E68" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>407.72</v>
+        <v>553.48</v>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>-0.9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>128.5899999999999</v>
+      </c>
+      <c r="I68" t="n">
+        <v>165.6300000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>48.02000000000004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1225.73</v>
+        <v>1671.95</v>
       </c>
       <c r="C69" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="D69" t="n">
-        <v>6133.59</v>
+        <v>6697.56</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3</v>
+        <v>11.5</v>
       </c>
       <c r="F69" t="n">
-        <v>443.85</v>
+        <v>690.52</v>
       </c>
       <c r="G69" t="n">
         <v>4.4</v>
       </c>
+      <c r="H69" t="n">
+        <v>146.1000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>172.3100000000004</v>
+      </c>
+      <c r="J69" t="n">
+        <v>137.04</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1397.26</v>
+        <v>2108.9</v>
       </c>
       <c r="C70" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D70" t="n">
-        <v>6359.62</v>
+        <v>7366.33</v>
       </c>
       <c r="E70" t="n">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="F70" t="n">
-        <v>505.46</v>
+        <v>1335.78</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>-5.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>436.95</v>
+      </c>
+      <c r="I70" t="n">
+        <v>668.7699999999995</v>
+      </c>
+      <c r="J70" t="n">
+        <v>645.26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1719.96</v>
+        <v>252.15</v>
       </c>
       <c r="C71" t="n">
-        <v>12.7</v>
+        <v>-19.2</v>
       </c>
       <c r="D71" t="n">
-        <v>7758.25</v>
+        <v>4118.93</v>
       </c>
       <c r="E71" t="n">
-        <v>18.9</v>
+        <v>13.5</v>
       </c>
       <c r="F71" t="n">
-        <v>660.73</v>
+        <v>81.72</v>
       </c>
       <c r="G71" t="n">
-        <v>19.4</v>
+        <v>-31.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>252.15</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4118.93</v>
+      </c>
+      <c r="J71" t="n">
+        <v>81.72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1824.43</v>
+        <v>466.12</v>
       </c>
       <c r="C72" t="n">
-        <v>9.1</v>
+        <v>-2.1</v>
       </c>
       <c r="D72" t="n">
-        <v>7929.88</v>
+        <v>5196.28</v>
       </c>
       <c r="E72" t="n">
-        <v>18.4</v>
+        <v>16.3</v>
       </c>
       <c r="F72" t="n">
-        <v>808.36</v>
+        <v>156.33</v>
       </c>
       <c r="G72" t="n">
-        <v>17.1</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H72" t="n">
+        <v>213.97</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1077.349999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>74.61000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2136.57</v>
+        <v>679.13</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="D73" t="n">
-        <v>8292.51</v>
+        <v>5968.54</v>
       </c>
       <c r="E73" t="n">
-        <v>12.1</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>1511.34</v>
+        <v>210.11</v>
       </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>-3.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>213.01</v>
+      </c>
+      <c r="I73" t="n">
+        <v>772.2600000000002</v>
+      </c>
+      <c r="J73" t="n">
+        <v>53.78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>252.15</v>
+        <v>866.8</v>
       </c>
       <c r="C74" t="n">
-        <v>-19.2</v>
+        <v>4.7</v>
       </c>
       <c r="D74" t="n">
-        <v>4118.93</v>
+        <v>6415.7</v>
       </c>
       <c r="E74" t="n">
-        <v>13.5</v>
+        <v>16.6</v>
       </c>
       <c r="F74" t="n">
-        <v>81.72</v>
+        <v>266.43</v>
       </c>
       <c r="G74" t="n">
-        <v>-31.5</v>
+        <v>-2.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>187.67</v>
+      </c>
+      <c r="I74" t="n">
+        <v>447.1599999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>56.31999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>466.12</v>
+        <v>1074.49</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.1</v>
+        <v>5.6</v>
       </c>
       <c r="D75" t="n">
-        <v>5196.28</v>
+        <v>6817</v>
       </c>
       <c r="E75" t="n">
-        <v>16.3</v>
+        <v>18.1</v>
       </c>
       <c r="F75" t="n">
-        <v>156.33</v>
+        <v>330.62</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>207.6900000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>401.3000000000002</v>
+      </c>
+      <c r="J75" t="n">
+        <v>64.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>679.13</v>
+        <v>1212.61</v>
       </c>
       <c r="C76" t="n">
-        <v>4.4</v>
+        <v>7.9</v>
       </c>
       <c r="D76" t="n">
-        <v>5968.54</v>
+        <v>7094.89</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>210.11</v>
+        <v>392.85</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
+      </c>
+      <c r="H76" t="n">
+        <v>138.1199999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>277.8900000000003</v>
+      </c>
+      <c r="J76" t="n">
+        <v>62.23000000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>866.8</v>
+        <v>1358.53</v>
       </c>
       <c r="C77" t="n">
-        <v>4.7</v>
+        <v>10.8</v>
       </c>
       <c r="D77" t="n">
-        <v>6415.7</v>
+        <v>7301.69</v>
       </c>
       <c r="E77" t="n">
-        <v>16.6</v>
+        <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>266.43</v>
+        <v>460.98</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.7</v>
+        <v>3.9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>145.9200000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>206.7999999999993</v>
+      </c>
+      <c r="J77" t="n">
+        <v>68.13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1074.49</v>
+        <v>1523.73</v>
       </c>
       <c r="C78" t="n">
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="D78" t="n">
-        <v>6817</v>
+        <v>7526.54</v>
       </c>
       <c r="E78" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="F78" t="n">
-        <v>330.62</v>
+        <v>546.28</v>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>224.8500000000004</v>
+      </c>
+      <c r="J78" t="n">
+        <v>85.29999999999995</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1212.61</v>
+        <v>1719.96</v>
       </c>
       <c r="C79" t="n">
-        <v>7.9</v>
+        <v>12.7</v>
       </c>
       <c r="D79" t="n">
-        <v>7094.89</v>
+        <v>7758.25</v>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F79" t="n">
-        <v>392.85</v>
+        <v>660.73</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.6</v>
+        <v>19.4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>196.23</v>
+      </c>
+      <c r="I79" t="n">
+        <v>231.71</v>
+      </c>
+      <c r="J79" t="n">
+        <v>114.45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1358.53</v>
+        <v>1824.43</v>
       </c>
       <c r="C80" t="n">
-        <v>10.8</v>
+        <v>9.1</v>
       </c>
       <c r="D80" t="n">
-        <v>7301.69</v>
+        <v>7929.88</v>
       </c>
       <c r="E80" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="F80" t="n">
-        <v>460.98</v>
+        <v>808.36</v>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>17.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>104.47</v>
+      </c>
+      <c r="I80" t="n">
+        <v>171.6300000000001</v>
+      </c>
+      <c r="J80" t="n">
+        <v>147.63</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1523.73</v>
+        <v>2136.57</v>
       </c>
       <c r="C81" t="n">
-        <v>9.1</v>
+        <v>0.1</v>
       </c>
       <c r="D81" t="n">
-        <v>7526.54</v>
+        <v>8292.51</v>
       </c>
       <c r="E81" t="n">
-        <v>18.3</v>
+        <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>546.28</v>
+        <v>1511.34</v>
       </c>
       <c r="G81" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>312.1400000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>362.6300000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>702.9799999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1699.39</v>
+        <v>289.37</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.2</v>
+        <v>14.8</v>
       </c>
       <c r="D82" t="n">
-        <v>8290.200000000001</v>
+        <v>4669.77</v>
       </c>
       <c r="E82" t="n">
-        <v>6.9</v>
+        <v>13.4</v>
       </c>
       <c r="F82" t="n">
-        <v>970.38</v>
+        <v>135.23</v>
       </c>
       <c r="G82" t="n">
-        <v>46.9</v>
+        <v>65.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>289.37</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4669.77</v>
+      </c>
+      <c r="J82" t="n">
+        <v>135.23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1887.21</v>
+        <v>501.99</v>
       </c>
       <c r="C83" t="n">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="D83" t="n">
-        <v>8501.76</v>
+        <v>5767.71</v>
       </c>
       <c r="E83" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>1052.4</v>
+        <v>225.52</v>
       </c>
       <c r="G83" t="n">
-        <v>30.2</v>
+        <v>44.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>212.62</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1097.94</v>
+      </c>
+      <c r="J83" t="n">
+        <v>90.29000000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2284.2</v>
+        <v>617.89</v>
       </c>
       <c r="C84" t="n">
-        <v>6.7</v>
+        <v>-9</v>
       </c>
       <c r="D84" t="n">
-        <v>9190.530000000001</v>
+        <v>6427.61</v>
       </c>
       <c r="E84" t="n">
-        <v>10.4</v>
+        <v>7.7</v>
       </c>
       <c r="F84" t="n">
-        <v>1647.97</v>
+        <v>292.25</v>
       </c>
       <c r="G84" t="n">
-        <v>6.7</v>
+        <v>39.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="I84" t="n">
+        <v>659.8999999999996</v>
+      </c>
+      <c r="J84" t="n">
+        <v>66.72999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>289.37</v>
+        <v>891.65</v>
       </c>
       <c r="C85" t="n">
-        <v>14.8</v>
+        <v>2.9</v>
       </c>
       <c r="D85" t="n">
-        <v>4669.77</v>
+        <v>6839.51</v>
       </c>
       <c r="E85" t="n">
-        <v>13.4</v>
+        <v>6.6</v>
       </c>
       <c r="F85" t="n">
-        <v>135.23</v>
+        <v>369.68</v>
       </c>
       <c r="G85" t="n">
-        <v>65.5</v>
+        <v>38.8</v>
+      </c>
+      <c r="H85" t="n">
+        <v>273.76</v>
+      </c>
+      <c r="I85" t="n">
+        <v>411.9000000000005</v>
+      </c>
+      <c r="J85" t="n">
+        <v>77.43000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>501.99</v>
+        <v>1127.07</v>
       </c>
       <c r="C86" t="n">
-        <v>7.7</v>
+        <v>4.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5767.71</v>
+        <v>7308.37</v>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="F86" t="n">
-        <v>225.52</v>
+        <v>451.2</v>
       </c>
       <c r="G86" t="n">
-        <v>44.3</v>
+        <v>36.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>235.42</v>
+      </c>
+      <c r="I86" t="n">
+        <v>468.8599999999997</v>
+      </c>
+      <c r="J86" t="n">
+        <v>81.51999999999998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>617.89</v>
+        <v>1278.06</v>
       </c>
       <c r="C87" t="n">
-        <v>-9</v>
+        <v>5.4</v>
       </c>
       <c r="D87" t="n">
-        <v>6427.61</v>
+        <v>7570.56</v>
       </c>
       <c r="E87" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="F87" t="n">
-        <v>292.25</v>
+        <v>577.67</v>
       </c>
       <c r="G87" t="n">
-        <v>39.1</v>
+        <v>47</v>
+      </c>
+      <c r="H87" t="n">
+        <v>150.99</v>
+      </c>
+      <c r="I87" t="n">
+        <v>262.1900000000005</v>
+      </c>
+      <c r="J87" t="n">
+        <v>126.47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>891.65</v>
+        <v>1427.75</v>
       </c>
       <c r="C88" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="D88" t="n">
-        <v>6839.51</v>
+        <v>7843.43</v>
       </c>
       <c r="E88" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="F88" t="n">
-        <v>369.68</v>
+        <v>692.16</v>
       </c>
       <c r="G88" t="n">
-        <v>38.8</v>
+        <v>50.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>149.6900000000001</v>
+      </c>
+      <c r="I88" t="n">
+        <v>272.8699999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>114.49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1127.07</v>
+        <v>1575.18</v>
       </c>
       <c r="C89" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="n">
-        <v>7308.37</v>
+        <v>8150.01</v>
       </c>
       <c r="E89" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>451.2</v>
+        <v>788.0700000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>36.5</v>
+        <v>44.3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>147.4300000000001</v>
+      </c>
+      <c r="I89" t="n">
+        <v>306.5799999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>95.91000000000008</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1278.06</v>
+        <v>1699.39</v>
       </c>
       <c r="C90" t="n">
-        <v>5.4</v>
+        <v>-1.2</v>
       </c>
       <c r="D90" t="n">
-        <v>7570.56</v>
+        <v>8290.200000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F90" t="n">
-        <v>577.67</v>
+        <v>970.38</v>
       </c>
       <c r="G90" t="n">
-        <v>47</v>
+        <v>46.9</v>
+      </c>
+      <c r="H90" t="n">
+        <v>124.21</v>
+      </c>
+      <c r="I90" t="n">
+        <v>140.1900000000005</v>
+      </c>
+      <c r="J90" t="n">
+        <v>182.3099999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1427.75</v>
+        <v>1887.21</v>
       </c>
       <c r="C91" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="n">
-        <v>7843.43</v>
+        <v>8501.76</v>
       </c>
       <c r="E91" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="F91" t="n">
-        <v>692.16</v>
+        <v>1052.4</v>
       </c>
       <c r="G91" t="n">
-        <v>50.1</v>
+        <v>30.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>187.8199999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>211.5599999999995</v>
+      </c>
+      <c r="J91" t="n">
+        <v>82.0200000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1575.18</v>
+        <v>2284.2</v>
       </c>
       <c r="C92" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="D92" t="n">
-        <v>8150.01</v>
+        <v>9190.530000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>8.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="F92" t="n">
-        <v>788.0700000000001</v>
+        <v>1647.97</v>
       </c>
       <c r="G92" t="n">
-        <v>44.3</v>
+        <v>6.7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>396.9899999999998</v>
+      </c>
+      <c r="I92" t="n">
+        <v>688.7700000000004</v>
+      </c>
+      <c r="J92" t="n">
+        <v>595.5699999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1939.33</v>
+        <v>268.68</v>
       </c>
       <c r="C93" t="n">
-        <v>14.1</v>
+        <v>-7.1</v>
       </c>
       <c r="D93" t="n">
-        <v>9207.84</v>
+        <v>5496.7</v>
       </c>
       <c r="E93" t="n">
-        <v>11.1</v>
+        <v>17.7</v>
       </c>
       <c r="F93" t="n">
-        <v>821.6</v>
+        <v>147.4</v>
       </c>
       <c r="G93" t="n">
-        <v>-15.3</v>
+        <v>9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>268.68</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5496.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>147.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2279.77</v>
+        <v>468.55</v>
       </c>
       <c r="C94" t="n">
-        <v>20.8</v>
+        <v>-6.2</v>
       </c>
       <c r="D94" t="n">
-        <v>9435.77</v>
+        <v>6544.86</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="F94" t="n">
-        <v>938.02</v>
+        <v>240.69</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.9</v>
+        <v>9.1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>199.87</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1048.16</v>
+      </c>
+      <c r="J94" t="n">
+        <v>93.28999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2813.57</v>
+        <v>618.37</v>
       </c>
       <c r="C95" t="n">
-        <v>13.8</v>
+        <v>0.1</v>
       </c>
       <c r="D95" t="n">
-        <v>9984.75</v>
+        <v>6940.02</v>
       </c>
       <c r="E95" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>1606.55</v>
+        <v>308.73</v>
       </c>
       <c r="G95" t="n">
-        <v>-12</v>
+        <v>5.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>149.82</v>
+      </c>
+      <c r="I95" t="n">
+        <v>395.1600000000008</v>
+      </c>
+      <c r="J95" t="n">
+        <v>68.04000000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>268.68</v>
+        <v>772.8200000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.1</v>
+        <v>-13.3</v>
       </c>
       <c r="D96" t="n">
-        <v>5496.7</v>
+        <v>7347.2</v>
       </c>
       <c r="E96" t="n">
-        <v>17.7</v>
+        <v>7.4</v>
       </c>
       <c r="F96" t="n">
-        <v>147.4</v>
+        <v>372.7</v>
       </c>
       <c r="G96" t="n">
-        <v>9</v>
+        <v>0.8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>154.45</v>
+      </c>
+      <c r="I96" t="n">
+        <v>407.1799999999994</v>
+      </c>
+      <c r="J96" t="n">
+        <v>63.96999999999997</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>468.55</v>
+        <v>1072.31</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.2</v>
+        <v>-4.9</v>
       </c>
       <c r="D97" t="n">
-        <v>6544.86</v>
+        <v>7818.03</v>
       </c>
       <c r="E97" t="n">
-        <v>13.8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>240.69</v>
+        <v>476.54</v>
       </c>
       <c r="G97" t="n">
-        <v>9.1</v>
+        <v>5.6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>299.4899999999999</v>
+      </c>
+      <c r="I97" t="n">
+        <v>470.8299999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>103.84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>618.37</v>
+        <v>1241.75</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1</v>
+        <v>-2.8</v>
       </c>
       <c r="D98" t="n">
-        <v>6940.02</v>
+        <v>8164.2</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F98" t="n">
-        <v>308.73</v>
+        <v>616.26</v>
       </c>
       <c r="G98" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
+      </c>
+      <c r="H98" t="n">
+        <v>169.4400000000001</v>
+      </c>
+      <c r="I98" t="n">
+        <v>346.1700000000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>772.8200000000001</v>
+        <v>1482.85</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.3</v>
+        <v>3.9</v>
       </c>
       <c r="D99" t="n">
-        <v>7347.2</v>
+        <v>8569.58</v>
       </c>
       <c r="E99" t="n">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>372.7</v>
+        <v>674.59</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>-2.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>241.0999999999999</v>
+      </c>
+      <c r="I99" t="n">
+        <v>405.3800000000001</v>
+      </c>
+      <c r="J99" t="n">
+        <v>58.33000000000004</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1072.31</v>
+        <v>1738.36</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.9</v>
+        <v>10.4</v>
       </c>
       <c r="D100" t="n">
-        <v>7818.03</v>
+        <v>8955.09</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="F100" t="n">
-        <v>476.54</v>
+        <v>725.7</v>
       </c>
       <c r="G100" t="n">
-        <v>5.6</v>
+        <v>-7.9</v>
+      </c>
+      <c r="H100" t="n">
+        <v>255.51</v>
+      </c>
+      <c r="I100" t="n">
+        <v>385.5100000000002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>51.11000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1241.75</v>
+        <v>1939.33</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.8</v>
+        <v>14.1</v>
       </c>
       <c r="D101" t="n">
-        <v>8164.2</v>
+        <v>9207.84</v>
       </c>
       <c r="E101" t="n">
-        <v>7.8</v>
+        <v>11.1</v>
       </c>
       <c r="F101" t="n">
-        <v>616.26</v>
+        <v>821.6</v>
       </c>
       <c r="G101" t="n">
-        <v>6.7</v>
+        <v>-15.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>200.97</v>
+      </c>
+      <c r="I101" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="J101" t="n">
+        <v>95.89999999999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1482.85</v>
+        <v>2279.77</v>
       </c>
       <c r="C102" t="n">
-        <v>3.9</v>
+        <v>20.8</v>
       </c>
       <c r="D102" t="n">
-        <v>8569.58</v>
+        <v>9435.77</v>
       </c>
       <c r="E102" t="n">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="F102" t="n">
-        <v>674.59</v>
+        <v>938.02</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.5</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>340.4400000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>227.9300000000003</v>
+      </c>
+      <c r="J102" t="n">
+        <v>116.42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1738.36</v>
+        <v>2813.57</v>
       </c>
       <c r="C103" t="n">
-        <v>10.4</v>
+        <v>13.8</v>
       </c>
       <c r="D103" t="n">
-        <v>8955.09</v>
+        <v>9984.75</v>
       </c>
       <c r="E103" t="n">
-        <v>9.9</v>
+        <v>4.2</v>
       </c>
       <c r="F103" t="n">
-        <v>725.7</v>
+        <v>1606.55</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.9</v>
+        <v>-12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>533.8000000000002</v>
+      </c>
+      <c r="I103" t="n">
+        <v>548.9799999999996</v>
+      </c>
+      <c r="J103" t="n">
+        <v>668.53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2973.0381</v>
+        <v>365.07</v>
       </c>
       <c r="C104" t="n">
-        <v>53.3</v>
+        <v>35.6</v>
       </c>
       <c r="D104" t="n">
-        <v>11327.2266</v>
+        <v>7363.45</v>
       </c>
       <c r="E104" t="n">
-        <v>23</v>
+        <v>25.9</v>
       </c>
       <c r="F104" t="n">
-        <v>890.8062</v>
+        <v>158.18</v>
       </c>
       <c r="G104" t="n">
-        <v>8.4</v>
+        <v>12.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>365.07</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7363.45</v>
+      </c>
+      <c r="J104" t="n">
+        <v>158.18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3227.2348</v>
+        <v>653.1900000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>41.6</v>
+        <v>39.4</v>
       </c>
       <c r="D105" t="n">
-        <v>11621.9867</v>
+        <v>8237.709999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>23.2</v>
+        <v>25.9</v>
       </c>
       <c r="F105" t="n">
-        <v>981.6513</v>
+        <v>268.53</v>
       </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>11.6</v>
+      </c>
+      <c r="H105" t="n">
+        <v>288.1200000000001</v>
+      </c>
+      <c r="I105" t="n">
+        <v>874.2599999999993</v>
+      </c>
+      <c r="J105" t="n">
+        <v>110.35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3678.0133</v>
+        <v>980.72</v>
       </c>
       <c r="C106" t="n">
-        <v>28.6</v>
+        <v>58.6</v>
       </c>
       <c r="D106" t="n">
-        <v>12139.7836</v>
+        <v>8830.99</v>
       </c>
       <c r="E106" t="n">
-        <v>21.4</v>
+        <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>1748.4359</v>
+        <v>331.81</v>
       </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>327.53</v>
+      </c>
+      <c r="I106" t="n">
+        <v>593.2800000000007</v>
+      </c>
+      <c r="J106" t="n">
+        <v>63.28000000000003</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>365.07</v>
+        <v>1455.6</v>
       </c>
       <c r="C107" t="n">
-        <v>35.6</v>
+        <v>88.3</v>
       </c>
       <c r="D107" t="n">
-        <v>7363.45</v>
+        <v>9316.559999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>25.9</v>
+        <v>26.8</v>
       </c>
       <c r="F107" t="n">
-        <v>158.18</v>
+        <v>434.19</v>
       </c>
       <c r="G107" t="n">
-        <v>12.6</v>
+        <v>16.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>474.8799999999999</v>
+      </c>
+      <c r="I107" t="n">
+        <v>485.5699999999997</v>
+      </c>
+      <c r="J107" t="n">
+        <v>102.38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>653.1900000000001</v>
+        <v>1867.07</v>
       </c>
       <c r="C108" t="n">
-        <v>39.4</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>8237.709999999999</v>
+        <v>9795.77</v>
       </c>
       <c r="E108" t="n">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="F108" t="n">
-        <v>268.53</v>
+        <v>538.49</v>
       </c>
       <c r="G108" t="n">
-        <v>11.6</v>
+        <v>13</v>
+      </c>
+      <c r="H108" t="n">
+        <v>411.47</v>
+      </c>
+      <c r="I108" t="n">
+        <v>479.2100000000009</v>
+      </c>
+      <c r="J108" t="n">
+        <v>104.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>980.72</v>
+        <v>2036.92</v>
       </c>
       <c r="C109" t="n">
-        <v>58.6</v>
+        <v>64</v>
       </c>
       <c r="D109" t="n">
-        <v>8830.99</v>
+        <v>10159.28</v>
       </c>
       <c r="E109" t="n">
-        <v>27.2</v>
+        <v>24.4</v>
       </c>
       <c r="F109" t="n">
-        <v>331.81</v>
+        <v>606.62</v>
       </c>
       <c r="G109" t="n">
-        <v>7.5</v>
+        <v>-1.6</v>
+      </c>
+      <c r="H109" t="n">
+        <v>169.8500000000001</v>
+      </c>
+      <c r="I109" t="n">
+        <v>363.5100000000002</v>
+      </c>
+      <c r="J109" t="n">
+        <v>68.13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1455.6</v>
+        <v>2372.84</v>
       </c>
       <c r="C110" t="n">
-        <v>88.3</v>
+        <v>60</v>
       </c>
       <c r="D110" t="n">
-        <v>9316.559999999999</v>
+        <v>10580.82</v>
       </c>
       <c r="E110" t="n">
-        <v>26.8</v>
+        <v>23.5</v>
       </c>
       <c r="F110" t="n">
-        <v>434.19</v>
+        <v>651.46</v>
       </c>
       <c r="G110" t="n">
-        <v>16.5</v>
+        <v>-3.4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>335.9200000000001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>421.5399999999991</v>
+      </c>
+      <c r="J110" t="n">
+        <v>44.84000000000003</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1867.07</v>
+        <v>2693.96</v>
       </c>
       <c r="C111" t="n">
-        <v>74.09999999999999</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>9795.77</v>
+        <v>10995.65</v>
       </c>
       <c r="E111" t="n">
-        <v>25.3</v>
+        <v>22.8</v>
       </c>
       <c r="F111" t="n">
-        <v>538.49</v>
+        <v>736.55</v>
       </c>
       <c r="G111" t="n">
-        <v>13</v>
+        <v>1.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>321.1199999999999</v>
+      </c>
+      <c r="I111" t="n">
+        <v>414.8299999999999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>85.08999999999992</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2036.92</v>
+        <v>2973.0381</v>
       </c>
       <c r="C112" t="n">
-        <v>64</v>
+        <v>53.3</v>
       </c>
       <c r="D112" t="n">
-        <v>10159.28</v>
+        <v>11327.2266</v>
       </c>
       <c r="E112" t="n">
-        <v>24.4</v>
+        <v>23</v>
       </c>
       <c r="F112" t="n">
-        <v>606.62</v>
+        <v>890.8062</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.6</v>
+        <v>8.4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>279.0781000000002</v>
+      </c>
+      <c r="I112" t="n">
+        <v>331.5766000000003</v>
+      </c>
+      <c r="J112" t="n">
+        <v>154.2562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2372.84</v>
+        <v>3227.2348</v>
       </c>
       <c r="C113" t="n">
-        <v>60</v>
+        <v>41.6</v>
       </c>
       <c r="D113" t="n">
-        <v>10580.82</v>
+        <v>11621.9867</v>
       </c>
       <c r="E113" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F113" t="n">
-        <v>651.46</v>
+        <v>981.6513</v>
       </c>
       <c r="G113" t="n">
-        <v>-3.4</v>
+        <v>4.7</v>
+      </c>
+      <c r="H113" t="n">
+        <v>254.1967</v>
+      </c>
+      <c r="I113" t="n">
+        <v>294.7600999999995</v>
+      </c>
+      <c r="J113" t="n">
+        <v>90.8451</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2693.96</v>
+        <v>3678.0133</v>
       </c>
       <c r="C114" t="n">
-        <v>55</v>
+        <v>28.6</v>
       </c>
       <c r="D114" t="n">
-        <v>10995.65</v>
+        <v>12139.7836</v>
       </c>
       <c r="E114" t="n">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="F114" t="n">
-        <v>736.55</v>
+        <v>1748.4359</v>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>450.7784999999999</v>
+      </c>
+      <c r="I114" t="n">
+        <v>517.7969000000012</v>
+      </c>
+      <c r="J114" t="n">
+        <v>766.7846</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4438.5477</v>
+        <v>555.5139</v>
       </c>
       <c r="C115" t="n">
-        <v>49.3</v>
+        <v>52.2</v>
       </c>
       <c r="D115" t="n">
-        <v>14982.5775</v>
+        <v>9309.4674</v>
       </c>
       <c r="E115" t="n">
-        <v>32.3</v>
+        <v>26.4</v>
       </c>
       <c r="F115" t="n">
-        <v>1222.4845</v>
+        <v>227.6811</v>
       </c>
       <c r="G115" t="n">
-        <v>37.2</v>
+        <v>43.9</v>
+      </c>
+      <c r="H115" t="n">
+        <v>555.5139</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9309.4674</v>
+      </c>
+      <c r="J115" t="n">
+        <v>227.6811</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4860.7566</v>
+        <v>1058.1753</v>
       </c>
       <c r="C116" t="n">
-        <v>50.6</v>
+        <v>62</v>
       </c>
       <c r="D116" t="n">
-        <v>15518.6402</v>
+        <v>10295.6909</v>
       </c>
       <c r="E116" t="n">
-        <v>33.5</v>
+        <v>25</v>
       </c>
       <c r="F116" t="n">
-        <v>1409.071</v>
+        <v>366.9544</v>
       </c>
       <c r="G116" t="n">
-        <v>43.5</v>
+        <v>36.7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>502.6614000000001</v>
+      </c>
+      <c r="I116" t="n">
+        <v>986.2235000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>139.2733</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5360.9399</v>
+        <v>1539.0059</v>
       </c>
       <c r="C117" t="n">
-        <v>46.2</v>
+        <v>56.9</v>
       </c>
       <c r="D117" t="n">
-        <v>15949.8723</v>
+        <v>11245.8402</v>
       </c>
       <c r="E117" t="n">
-        <v>31.3</v>
+        <v>27.3</v>
       </c>
       <c r="F117" t="n">
-        <v>2179.4212</v>
+        <v>486.4086</v>
       </c>
       <c r="G117" t="n">
-        <v>20</v>
+        <v>46.6</v>
+      </c>
+      <c r="H117" t="n">
+        <v>480.8306</v>
+      </c>
+      <c r="I117" t="n">
+        <v>950.1493000000009</v>
+      </c>
+      <c r="J117" t="n">
+        <v>119.4542</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>555.5139</v>
+        <v>2102.2317</v>
       </c>
       <c r="C118" t="n">
-        <v>52.2</v>
+        <v>44.4</v>
       </c>
       <c r="D118" t="n">
-        <v>9309.4674</v>
+        <v>12046.6321</v>
       </c>
       <c r="E118" t="n">
-        <v>26.4</v>
+        <v>29.3</v>
       </c>
       <c r="F118" t="n">
-        <v>227.6811</v>
+        <v>614.7454</v>
       </c>
       <c r="G118" t="n">
-        <v>43.9</v>
+        <v>41.6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>563.2257999999997</v>
+      </c>
+      <c r="I118" t="n">
+        <v>800.7919000000002</v>
+      </c>
+      <c r="J118" t="n">
+        <v>128.3368</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1058.1753</v>
+        <v>2769.6548</v>
       </c>
       <c r="C119" t="n">
-        <v>62</v>
+        <v>48.3</v>
       </c>
       <c r="D119" t="n">
-        <v>10295.6909</v>
+        <v>12848.2683</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>31.2</v>
       </c>
       <c r="F119" t="n">
-        <v>366.9544</v>
+        <v>729.4386</v>
       </c>
       <c r="G119" t="n">
-        <v>36.7</v>
+        <v>35.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>667.4231</v>
+      </c>
+      <c r="I119" t="n">
+        <v>801.636199999999</v>
+      </c>
+      <c r="J119" t="n">
+        <v>114.6931999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1539.0059</v>
+        <v>3146.8789</v>
       </c>
       <c r="C120" t="n">
-        <v>56.9</v>
+        <v>54.5</v>
       </c>
       <c r="D120" t="n">
-        <v>11245.8402</v>
+        <v>13398.2607</v>
       </c>
       <c r="E120" t="n">
-        <v>27.3</v>
+        <v>31.9</v>
       </c>
       <c r="F120" t="n">
-        <v>486.4086</v>
+        <v>836.458</v>
       </c>
       <c r="G120" t="n">
-        <v>46.6</v>
+        <v>37.9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>377.2241000000004</v>
+      </c>
+      <c r="I120" t="n">
+        <v>549.992400000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>107.0194</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2102.2317</v>
+        <v>3604.7128</v>
       </c>
       <c r="C121" t="n">
-        <v>44.4</v>
+        <v>51.9</v>
       </c>
       <c r="D121" t="n">
-        <v>12046.6321</v>
+        <v>13962.602</v>
       </c>
       <c r="E121" t="n">
-        <v>29.3</v>
+        <v>32</v>
       </c>
       <c r="F121" t="n">
-        <v>614.7454</v>
+        <v>929.7199000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>41.6</v>
+        <v>42.7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>457.8338999999996</v>
+      </c>
+      <c r="I121" t="n">
+        <v>564.3413</v>
+      </c>
+      <c r="J121" t="n">
+        <v>93.26190000000008</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2769.6548</v>
+        <v>4043.1759</v>
       </c>
       <c r="C122" t="n">
-        <v>48.3</v>
+        <v>50.1</v>
       </c>
       <c r="D122" t="n">
-        <v>12848.2683</v>
+        <v>14559.7189</v>
       </c>
       <c r="E122" t="n">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="F122" t="n">
-        <v>729.4386</v>
+        <v>1092.7264</v>
       </c>
       <c r="G122" t="n">
-        <v>35.5</v>
+        <v>48.4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>438.4631000000004</v>
+      </c>
+      <c r="I122" t="n">
+        <v>597.1168999999991</v>
+      </c>
+      <c r="J122" t="n">
+        <v>163.0065</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3146.8789</v>
+        <v>4438.5477</v>
       </c>
       <c r="C123" t="n">
-        <v>54.5</v>
+        <v>49.3</v>
       </c>
       <c r="D123" t="n">
-        <v>13398.2607</v>
+        <v>14982.5775</v>
       </c>
       <c r="E123" t="n">
-        <v>31.9</v>
+        <v>32.3</v>
       </c>
       <c r="F123" t="n">
-        <v>836.458</v>
+        <v>1222.4845</v>
       </c>
       <c r="G123" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>395.3717999999999</v>
+      </c>
+      <c r="I123" t="n">
+        <v>422.8585999999996</v>
+      </c>
+      <c r="J123" t="n">
+        <v>129.7581</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3604.7128</v>
+        <v>4860.7566</v>
       </c>
       <c r="C124" t="n">
-        <v>51.9</v>
+        <v>50.6</v>
       </c>
       <c r="D124" t="n">
-        <v>13962.602</v>
+        <v>15518.6402</v>
       </c>
       <c r="E124" t="n">
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="F124" t="n">
-        <v>929.7199000000001</v>
+        <v>1409.071</v>
       </c>
       <c r="G124" t="n">
-        <v>42.7</v>
+        <v>43.5</v>
+      </c>
+      <c r="H124" t="n">
+        <v>422.2088999999996</v>
+      </c>
+      <c r="I124" t="n">
+        <v>536.0627000000004</v>
+      </c>
+      <c r="J124" t="n">
+        <v>186.5864999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4043.1759</v>
+        <v>5360.9399</v>
       </c>
       <c r="C125" t="n">
-        <v>50.1</v>
+        <v>46.2</v>
       </c>
       <c r="D125" t="n">
-        <v>14559.7189</v>
+        <v>15949.8723</v>
       </c>
       <c r="E125" t="n">
-        <v>32.4</v>
+        <v>31.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1092.7264</v>
+        <v>2179.4212</v>
       </c>
       <c r="G125" t="n">
-        <v>48.4</v>
+        <v>20</v>
+      </c>
+      <c r="H125" t="n">
+        <v>500.1833000000006</v>
+      </c>
+      <c r="I125" t="n">
+        <v>431.2321000000011</v>
+      </c>
+      <c r="J125" t="n">
+        <v>770.3502000000003</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4751.969</v>
+        <v>594.6689</v>
       </c>
       <c r="C126" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>18094.5029</v>
+        <v>13420.7836</v>
       </c>
       <c r="E126" t="n">
-        <v>20.8</v>
+        <v>44.2</v>
       </c>
       <c r="F126" t="n">
-        <v>1189.1459</v>
+        <v>172.9853</v>
       </c>
       <c r="G126" t="n">
-        <v>-2.7</v>
+        <v>-24</v>
+      </c>
+      <c r="H126" t="n">
+        <v>594.6689</v>
+      </c>
+      <c r="I126" t="n">
+        <v>13420.7836</v>
+      </c>
+      <c r="J126" t="n">
+        <v>172.9853</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5410.3705</v>
+        <v>1287.0506</v>
       </c>
       <c r="C127" t="n">
-        <v>11.3</v>
+        <v>21.6</v>
       </c>
       <c r="D127" t="n">
-        <v>18886.007</v>
+        <v>14091.6669</v>
       </c>
       <c r="E127" t="n">
-        <v>21.7</v>
+        <v>36.9</v>
       </c>
       <c r="F127" t="n">
-        <v>1347.4418</v>
+        <v>359.8032</v>
       </c>
       <c r="G127" t="n">
-        <v>-4.4</v>
+        <v>-1.9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>692.3817</v>
+      </c>
+      <c r="I127" t="n">
+        <v>670.8832999999995</v>
+      </c>
+      <c r="J127" t="n">
+        <v>186.8179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5986.4556</v>
+        <v>1666.5001</v>
       </c>
       <c r="C128" t="n">
-        <v>10.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>19434.1693</v>
+        <v>14509.2064</v>
       </c>
       <c r="E128" t="n">
-        <v>21.5</v>
+        <v>29</v>
       </c>
       <c r="F128" t="n">
-        <v>2315.361</v>
+        <v>478.0508</v>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>-1.7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>379.4494999999999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>417.539499999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>118.2476</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>594.6689</v>
+        <v>2362.2735</v>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>12.4</v>
       </c>
       <c r="D129" t="n">
-        <v>13420.7836</v>
+        <v>15377.0291</v>
       </c>
       <c r="E129" t="n">
-        <v>44.2</v>
+        <v>27.6</v>
       </c>
       <c r="F129" t="n">
-        <v>172.9853</v>
+        <v>597.8842</v>
       </c>
       <c r="G129" t="n">
-        <v>-24</v>
+        <v>-2.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>695.7733999999998</v>
+      </c>
+      <c r="I129" t="n">
+        <v>867.8227000000006</v>
+      </c>
+      <c r="J129" t="n">
+        <v>119.8334</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1287.0506</v>
+        <v>2818.1618</v>
       </c>
       <c r="C130" t="n">
-        <v>21.6</v>
+        <v>1.8</v>
       </c>
       <c r="D130" t="n">
-        <v>14091.6669</v>
+        <v>15972.6065</v>
       </c>
       <c r="E130" t="n">
-        <v>36.9</v>
+        <v>24.3</v>
       </c>
       <c r="F130" t="n">
-        <v>359.8032</v>
+        <v>660.3987</v>
       </c>
       <c r="G130" t="n">
-        <v>-1.9</v>
+        <v>-9.5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>455.8883000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>595.5774000000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>62.5145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1666.5001</v>
+        <v>3225.998</v>
       </c>
       <c r="C131" t="n">
-        <v>8.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D131" t="n">
-        <v>14509.2064</v>
+        <v>16420.1801</v>
       </c>
       <c r="E131" t="n">
-        <v>29</v>
+        <v>22.6</v>
       </c>
       <c r="F131" t="n">
-        <v>478.0508</v>
+        <v>823.6112000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
+      </c>
+      <c r="H131" t="n">
+        <v>407.8362000000002</v>
+      </c>
+      <c r="I131" t="n">
+        <v>447.5736000000015</v>
+      </c>
+      <c r="J131" t="n">
+        <v>163.2125000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2362.2735</v>
+        <v>3924.6689</v>
       </c>
       <c r="C132" t="n">
-        <v>12.4</v>
+        <v>8.9</v>
       </c>
       <c r="D132" t="n">
-        <v>15377.0291</v>
+        <v>17222.8128</v>
       </c>
       <c r="E132" t="n">
-        <v>27.6</v>
+        <v>23.3</v>
       </c>
       <c r="F132" t="n">
-        <v>597.8842</v>
+        <v>924.5703999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>-2.7</v>
+        <v>-0.6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>698.6709000000001</v>
+      </c>
+      <c r="I132" t="n">
+        <v>802.6326999999983</v>
+      </c>
+      <c r="J132" t="n">
+        <v>100.9591999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2818.1618</v>
+        <v>4295.7924</v>
       </c>
       <c r="C133" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="D133" t="n">
-        <v>15972.6065</v>
+        <v>17620.9426</v>
       </c>
       <c r="E133" t="n">
-        <v>24.3</v>
+        <v>21</v>
       </c>
       <c r="F133" t="n">
-        <v>660.3987</v>
+        <v>1020.3264</v>
       </c>
       <c r="G133" t="n">
-        <v>-9.5</v>
+        <v>-6.6</v>
+      </c>
+      <c r="H133" t="n">
+        <v>371.1235000000001</v>
+      </c>
+      <c r="I133" t="n">
+        <v>398.1297999999988</v>
+      </c>
+      <c r="J133" t="n">
+        <v>95.75600000000009</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3225.998</v>
+        <v>4751.969</v>
       </c>
       <c r="C134" t="n">
-        <v>2.5</v>
+        <v>7.1</v>
       </c>
       <c r="D134" t="n">
-        <v>16420.1801</v>
+        <v>18094.5029</v>
       </c>
       <c r="E134" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="F134" t="n">
-        <v>823.6112000000001</v>
+        <v>1189.1459</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.5</v>
+        <v>-2.7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>456.1765999999998</v>
+      </c>
+      <c r="I134" t="n">
+        <v>473.560300000001</v>
+      </c>
+      <c r="J134" t="n">
+        <v>168.8194999999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3924.6689</v>
+        <v>5410.3705</v>
       </c>
       <c r="C135" t="n">
-        <v>8.9</v>
+        <v>11.3</v>
       </c>
       <c r="D135" t="n">
-        <v>17222.8128</v>
+        <v>18886.007</v>
       </c>
       <c r="E135" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="F135" t="n">
-        <v>924.5703999999999</v>
+        <v>1347.4418</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.6</v>
+        <v>-4.4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>658.4014999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>791.5041000000019</v>
+      </c>
+      <c r="J135" t="n">
+        <v>158.2959000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4295.7924</v>
+        <v>5986.4556</v>
       </c>
       <c r="C136" t="n">
-        <v>6.2</v>
+        <v>10.9</v>
       </c>
       <c r="D136" t="n">
-        <v>17620.9426</v>
+        <v>19434.1693</v>
       </c>
       <c r="E136" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="F136" t="n">
-        <v>1020.3264</v>
+        <v>2315.361</v>
       </c>
       <c r="G136" t="n">
-        <v>-6.6</v>
+        <v>2.1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>576.0851000000002</v>
+      </c>
+      <c r="I136" t="n">
+        <v>548.1623</v>
+      </c>
+      <c r="J136" t="n">
+        <v>967.9191999999998</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5031.6389</v>
+        <v>721.3570999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>5.9</v>
+        <v>21.3</v>
       </c>
       <c r="D137" t="n">
-        <v>22461.7967</v>
+        <v>16594.845</v>
       </c>
       <c r="E137" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="F137" t="n">
-        <v>1334.6511</v>
+        <v>323.1077</v>
       </c>
       <c r="G137" t="n">
-        <v>12.2</v>
+        <v>86.8</v>
+      </c>
+      <c r="H137" t="n">
+        <v>721.3570999999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>16594.845</v>
+      </c>
+      <c r="J137" t="n">
+        <v>323.1077</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5893.2363</v>
+        <v>1269.8665</v>
       </c>
       <c r="C138" t="n">
-        <v>8.9</v>
+        <v>-1.3</v>
       </c>
       <c r="D138" t="n">
-        <v>23535.7277</v>
+        <v>17526.4158</v>
       </c>
       <c r="E138" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="F138" t="n">
-        <v>1592.153</v>
+        <v>464.3176</v>
       </c>
       <c r="G138" t="n">
-        <v>18.2</v>
+        <v>29</v>
+      </c>
+      <c r="H138" t="n">
+        <v>548.5094000000001</v>
+      </c>
+      <c r="I138" t="n">
+        <v>931.5707999999977</v>
+      </c>
+      <c r="J138" t="n">
+        <v>141.2099</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6887.2386</v>
+        <v>1813.5412</v>
       </c>
       <c r="C139" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>24577.4076</v>
+        <v>18349.6308</v>
       </c>
       <c r="E139" t="n">
         <v>26.5</v>
       </c>
       <c r="F139" t="n">
-        <v>2789.3993</v>
+        <v>594.7947</v>
       </c>
       <c r="G139" t="n">
-        <v>20.5</v>
+        <v>24.4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>543.6746999999998</v>
+      </c>
+      <c r="I139" t="n">
+        <v>823.2150000000001</v>
+      </c>
+      <c r="J139" t="n">
+        <v>130.4771</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>721.3570999999999</v>
+        <v>2405.3175</v>
       </c>
       <c r="C140" t="n">
-        <v>21.3</v>
+        <v>1.8</v>
       </c>
       <c r="D140" t="n">
-        <v>16594.845</v>
+        <v>19206.1041</v>
       </c>
       <c r="E140" t="n">
-        <v>23.7</v>
+        <v>24.9</v>
       </c>
       <c r="F140" t="n">
-        <v>323.1077</v>
+        <v>686.5604</v>
       </c>
       <c r="G140" t="n">
-        <v>86.8</v>
+        <v>14.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>591.7763000000002</v>
+      </c>
+      <c r="I140" t="n">
+        <v>856.4733000000015</v>
+      </c>
+      <c r="J140" t="n">
+        <v>91.76569999999992</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1269.8665</v>
+        <v>3001.4043</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.3</v>
+        <v>6.5</v>
       </c>
       <c r="D141" t="n">
-        <v>17526.4158</v>
+        <v>20057.3578</v>
       </c>
       <c r="E141" t="n">
-        <v>24.4</v>
+        <v>25.6</v>
       </c>
       <c r="F141" t="n">
-        <v>464.3176</v>
+        <v>860.098</v>
       </c>
       <c r="G141" t="n">
-        <v>29</v>
+        <v>30.2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>596.0868</v>
+      </c>
+      <c r="I141" t="n">
+        <v>851.2537000000011</v>
+      </c>
+      <c r="J141" t="n">
+        <v>173.5376</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1813.5412</v>
+        <v>3607.9364</v>
       </c>
       <c r="C142" t="n">
-        <v>8.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D142" t="n">
-        <v>18349.6308</v>
+        <v>20877.2716</v>
       </c>
       <c r="E142" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="F142" t="n">
-        <v>594.7947</v>
+        <v>989.3479</v>
       </c>
       <c r="G142" t="n">
-        <v>24.4</v>
+        <v>20.1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>606.5320999999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>819.9137999999984</v>
+      </c>
+      <c r="J142" t="n">
+        <v>129.2499</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2405.3175</v>
+        <v>4104.1804</v>
       </c>
       <c r="C143" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="D143" t="n">
-        <v>19206.1041</v>
+        <v>21518.0346</v>
       </c>
       <c r="E143" t="n">
         <v>24.9</v>
       </c>
       <c r="F143" t="n">
-        <v>686.5604</v>
+        <v>1118.3807</v>
       </c>
       <c r="G143" t="n">
-        <v>14.8</v>
+        <v>21</v>
+      </c>
+      <c r="H143" t="n">
+        <v>496.2440000000001</v>
+      </c>
+      <c r="I143" t="n">
+        <v>640.762999999999</v>
+      </c>
+      <c r="J143" t="n">
+        <v>129.0328</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3001.4043</v>
+        <v>4605.6813</v>
       </c>
       <c r="C144" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D144" t="n">
-        <v>20057.3578</v>
+        <v>21995.8687</v>
       </c>
       <c r="E144" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="F144" t="n">
-        <v>860.098</v>
+        <v>1227.1444</v>
       </c>
       <c r="G144" t="n">
-        <v>30.2</v>
+        <v>20.3</v>
+      </c>
+      <c r="H144" t="n">
+        <v>501.5009</v>
+      </c>
+      <c r="I144" t="n">
+        <v>477.8341</v>
+      </c>
+      <c r="J144" t="n">
+        <v>108.7637</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3607.9364</v>
+        <v>5031.6389</v>
       </c>
       <c r="C145" t="n">
-        <v>11.8</v>
+        <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>20877.2716</v>
+        <v>22461.7967</v>
       </c>
       <c r="E145" t="n">
-        <v>27.1</v>
+        <v>24.1</v>
       </c>
       <c r="F145" t="n">
-        <v>989.3479</v>
+        <v>1334.6511</v>
       </c>
       <c r="G145" t="n">
-        <v>20.1</v>
+        <v>12.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>425.9575999999997</v>
+      </c>
+      <c r="I145" t="n">
+        <v>465.9279999999999</v>
+      </c>
+      <c r="J145" t="n">
+        <v>107.5067000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4104.1804</v>
+        <v>5893.2363</v>
       </c>
       <c r="C146" t="n">
-        <v>4.6</v>
+        <v>8.9</v>
       </c>
       <c r="D146" t="n">
-        <v>21518.0346</v>
+        <v>23535.7277</v>
       </c>
       <c r="E146" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="F146" t="n">
-        <v>1118.3807</v>
+        <v>1592.153</v>
       </c>
       <c r="G146" t="n">
-        <v>21</v>
+        <v>18.2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>861.5973999999997</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1073.931</v>
+      </c>
+      <c r="J146" t="n">
+        <v>257.5019</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4605.6813</v>
+        <v>6887.2386</v>
       </c>
       <c r="C147" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>21995.8687</v>
+        <v>24577.4076</v>
       </c>
       <c r="E147" t="n">
-        <v>24.8</v>
+        <v>26.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1227.1444</v>
+        <v>2789.3993</v>
       </c>
       <c r="G147" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>994.0023000000001</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1041.679899999999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1197.2463</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>6012.6703</v>
+        <v>524.1943</v>
       </c>
       <c r="C148" t="n">
-        <v>19.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D148" t="n">
-        <v>28272.9211</v>
+        <v>20964.1317</v>
       </c>
       <c r="E148" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="F148" t="n">
-        <v>1650.2919</v>
+        <v>368.2843</v>
       </c>
       <c r="G148" t="n">
-        <v>23.6</v>
+        <v>14</v>
+      </c>
+      <c r="H148" t="n">
+        <v>524.1943</v>
+      </c>
+      <c r="I148" t="n">
+        <v>20964.1317</v>
+      </c>
+      <c r="J148" t="n">
+        <v>368.2843</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6668.1187</v>
+        <v>996.9345</v>
       </c>
       <c r="C149" t="n">
-        <v>13.1</v>
+        <v>-21.5</v>
       </c>
       <c r="D149" t="n">
-        <v>29045.5323</v>
+        <v>21895.8731</v>
       </c>
       <c r="E149" t="n">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="F149" t="n">
-        <v>2044.1774</v>
+        <v>552.3706</v>
       </c>
       <c r="G149" t="n">
-        <v>28.4</v>
+        <v>19</v>
+      </c>
+      <c r="H149" t="n">
+        <v>472.7402</v>
+      </c>
+      <c r="I149" t="n">
+        <v>931.741399999999</v>
+      </c>
+      <c r="J149" t="n">
+        <v>184.0863</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7349.0989</v>
+        <v>1608.9602</v>
       </c>
       <c r="C150" t="n">
-        <v>6.7</v>
+        <v>-11.3</v>
       </c>
       <c r="D150" t="n">
-        <v>29927.5431</v>
+        <v>22769.8676</v>
       </c>
       <c r="E150" t="n">
-        <v>21.8</v>
+        <v>24.1</v>
       </c>
       <c r="F150" t="n">
-        <v>3144.1759</v>
+        <v>679.991</v>
       </c>
       <c r="G150" t="n">
-        <v>12.7</v>
+        <v>14.3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>612.0257</v>
+      </c>
+      <c r="I150" t="n">
+        <v>873.9945000000007</v>
+      </c>
+      <c r="J150" t="n">
+        <v>127.6204</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>524.1943</v>
+        <v>2284.9961</v>
       </c>
       <c r="C151" t="n">
-        <v>-27.3</v>
+        <v>-5</v>
       </c>
       <c r="D151" t="n">
-        <v>20964.1317</v>
+        <v>23718.5693</v>
       </c>
       <c r="E151" t="n">
-        <v>26.3</v>
+        <v>23.5</v>
       </c>
       <c r="F151" t="n">
-        <v>368.2843</v>
+        <v>801.8923</v>
       </c>
       <c r="G151" t="n">
-        <v>14</v>
+        <v>16.8</v>
+      </c>
+      <c r="H151" t="n">
+        <v>676.0358999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>948.7016999999978</v>
+      </c>
+      <c r="J151" t="n">
+        <v>121.9013</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>996.9345</v>
+        <v>3098.2913</v>
       </c>
       <c r="C152" t="n">
-        <v>-21.5</v>
+        <v>3.2</v>
       </c>
       <c r="D152" t="n">
-        <v>21895.8731</v>
+        <v>24738.5004</v>
       </c>
       <c r="E152" t="n">
-        <v>24.9</v>
+        <v>23.3</v>
       </c>
       <c r="F152" t="n">
-        <v>552.3706</v>
+        <v>980.3117</v>
       </c>
       <c r="G152" t="n">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="H152" t="n">
+        <v>813.2952</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1019.931100000002</v>
+      </c>
+      <c r="J152" t="n">
+        <v>178.4194</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1608.9602</v>
+        <v>3870.056</v>
       </c>
       <c r="C153" t="n">
-        <v>-11.3</v>
+        <v>7.3</v>
       </c>
       <c r="D153" t="n">
-        <v>22769.8676</v>
+        <v>25666.5148</v>
       </c>
       <c r="E153" t="n">
-        <v>24.1</v>
+        <v>22.9</v>
       </c>
       <c r="F153" t="n">
-        <v>679.991</v>
+        <v>1128.6968</v>
       </c>
       <c r="G153" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>771.7647000000002</v>
+      </c>
+      <c r="I153" t="n">
+        <v>928.0144</v>
+      </c>
+      <c r="J153" t="n">
+        <v>148.3851</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2284.9961</v>
+        <v>4544.0224</v>
       </c>
       <c r="C154" t="n">
-        <v>-5</v>
+        <v>10.7</v>
       </c>
       <c r="D154" t="n">
-        <v>23718.5693</v>
+        <v>26509.9575</v>
       </c>
       <c r="E154" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F154" t="n">
-        <v>801.8923</v>
+        <v>1272.4857</v>
       </c>
       <c r="G154" t="n">
-        <v>16.8</v>
+        <v>13.8</v>
+      </c>
+      <c r="H154" t="n">
+        <v>673.9663999999998</v>
+      </c>
+      <c r="I154" t="n">
+        <v>843.4426999999996</v>
+      </c>
+      <c r="J154" t="n">
+        <v>143.7889</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3098.2913</v>
+        <v>5314.5749</v>
       </c>
       <c r="C155" t="n">
-        <v>3.2</v>
+        <v>15.4</v>
       </c>
       <c r="D155" t="n">
-        <v>24738.5004</v>
+        <v>27381.4309</v>
       </c>
       <c r="E155" t="n">
-        <v>23.3</v>
+        <v>24.5</v>
       </c>
       <c r="F155" t="n">
-        <v>980.3117</v>
+        <v>1414.5879</v>
       </c>
       <c r="G155" t="n">
-        <v>14</v>
+        <v>15.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>770.5524999999998</v>
+      </c>
+      <c r="I155" t="n">
+        <v>871.4733999999989</v>
+      </c>
+      <c r="J155" t="n">
+        <v>142.1022</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3870.056</v>
+        <v>6012.6703</v>
       </c>
       <c r="C156" t="n">
-        <v>7.3</v>
+        <v>19.5</v>
       </c>
       <c r="D156" t="n">
-        <v>25666.5148</v>
+        <v>28272.9211</v>
       </c>
       <c r="E156" t="n">
-        <v>22.9</v>
+        <v>25.9</v>
       </c>
       <c r="F156" t="n">
-        <v>1128.6968</v>
+        <v>1650.2919</v>
       </c>
       <c r="G156" t="n">
-        <v>14.1</v>
+        <v>23.6</v>
+      </c>
+      <c r="H156" t="n">
+        <v>698.0954000000002</v>
+      </c>
+      <c r="I156" t="n">
+        <v>891.4902000000002</v>
+      </c>
+      <c r="J156" t="n">
+        <v>235.704</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4544.0224</v>
+        <v>6668.1187</v>
       </c>
       <c r="C157" t="n">
-        <v>10.7</v>
+        <v>13.1</v>
       </c>
       <c r="D157" t="n">
-        <v>26509.9575</v>
+        <v>29045.5323</v>
       </c>
       <c r="E157" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F157" t="n">
-        <v>1272.4857</v>
+        <v>2044.1774</v>
       </c>
       <c r="G157" t="n">
-        <v>13.8</v>
+        <v>28.4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>655.4484000000002</v>
+      </c>
+      <c r="I157" t="n">
+        <v>772.6111999999994</v>
+      </c>
+      <c r="J157" t="n">
+        <v>393.8855000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>5314.5749</v>
+        <v>7349.0989</v>
       </c>
       <c r="C158" t="n">
-        <v>15.4</v>
+        <v>6.7</v>
       </c>
       <c r="D158" t="n">
-        <v>27381.4309</v>
+        <v>29927.5431</v>
       </c>
       <c r="E158" t="n">
-        <v>24.5</v>
+        <v>21.8</v>
       </c>
       <c r="F158" t="n">
-        <v>1414.5879</v>
+        <v>3144.1759</v>
       </c>
       <c r="G158" t="n">
-        <v>15.3</v>
+        <v>12.7</v>
+      </c>
+      <c r="H158" t="n">
+        <v>680.9802</v>
+      </c>
+      <c r="I158" t="n">
+        <v>882.0108</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1099.9985</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5296.8695</v>
+        <v>495.5763</v>
       </c>
       <c r="C159" t="n">
-        <v>-11.9</v>
+        <v>-5.5</v>
       </c>
       <c r="D159" t="n">
-        <v>31671.9053</v>
+        <v>25406.7813</v>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>21.2</v>
       </c>
       <c r="F159" t="n">
-        <v>2041.1936</v>
+        <v>502.3073</v>
       </c>
       <c r="G159" t="n">
-        <v>23.7</v>
+        <v>36.4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>495.5763</v>
+      </c>
+      <c r="I159" t="n">
+        <v>25406.7813</v>
+      </c>
+      <c r="J159" t="n">
+        <v>502.3073</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5859.7572</v>
+        <v>939.1245</v>
       </c>
       <c r="C160" t="n">
-        <v>-12.1</v>
+        <v>-5.8</v>
       </c>
       <c r="D160" t="n">
-        <v>32450.5967</v>
+        <v>26104.1483</v>
       </c>
       <c r="E160" t="n">
-        <v>11.7</v>
+        <v>19.2</v>
       </c>
       <c r="F160" t="n">
-        <v>2377.1522</v>
+        <v>688.6695999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>16.3</v>
+        <v>24.7</v>
+      </c>
+      <c r="H160" t="n">
+        <v>443.5482</v>
+      </c>
+      <c r="I160" t="n">
+        <v>697.367000000002</v>
+      </c>
+      <c r="J160" t="n">
+        <v>186.3622999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6569.1214</v>
+        <v>1376.3527</v>
       </c>
       <c r="C161" t="n">
-        <v>-10.6</v>
+        <v>-14.5</v>
       </c>
       <c r="D161" t="n">
-        <v>33044.3704</v>
+        <v>26647.8899</v>
       </c>
       <c r="E161" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>3419.4869</v>
+        <v>789.3519</v>
       </c>
       <c r="G161" t="n">
-        <v>8.800000000000001</v>
+        <v>16.1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>437.2281999999999</v>
+      </c>
+      <c r="I161" t="n">
+        <v>543.7415999999976</v>
+      </c>
+      <c r="J161" t="n">
+        <v>100.6823000000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>495.5763</v>
+        <v>2016.3812</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.5</v>
+        <v>-11.8</v>
       </c>
       <c r="D162" t="n">
-        <v>25406.7813</v>
+        <v>27498.6494</v>
       </c>
       <c r="E162" t="n">
-        <v>21.2</v>
+        <v>15.9</v>
       </c>
       <c r="F162" t="n">
-        <v>502.3073</v>
+        <v>894.4912</v>
       </c>
       <c r="G162" t="n">
-        <v>36.4</v>
+        <v>11.5</v>
+      </c>
+      <c r="H162" t="n">
+        <v>640.0285000000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>850.7595000000001</v>
+      </c>
+      <c r="J162" t="n">
+        <v>105.1393</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>939.1245</v>
+        <v>2688.8036</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.8</v>
+        <v>-13.2</v>
       </c>
       <c r="D163" t="n">
-        <v>26104.1483</v>
+        <v>28362.6624</v>
       </c>
       <c r="E163" t="n">
-        <v>19.2</v>
+        <v>14.6</v>
       </c>
       <c r="F163" t="n">
-        <v>688.6695999999999</v>
+        <v>1125.2677</v>
       </c>
       <c r="G163" t="n">
-        <v>24.7</v>
+        <v>14.8</v>
+      </c>
+      <c r="H163" t="n">
+        <v>672.4224000000002</v>
+      </c>
+      <c r="I163" t="n">
+        <v>864.0130000000026</v>
+      </c>
+      <c r="J163" t="n">
+        <v>230.7765000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1376.3527</v>
+        <v>3295.5876</v>
       </c>
       <c r="C164" t="n">
-        <v>-14.5</v>
+        <v>-14.8</v>
       </c>
       <c r="D164" t="n">
-        <v>26647.8899</v>
+        <v>29116.1534</v>
       </c>
       <c r="E164" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="F164" t="n">
-        <v>789.3519</v>
+        <v>1293.3987</v>
       </c>
       <c r="G164" t="n">
-        <v>16.1</v>
+        <v>14.6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>606.7839999999997</v>
+      </c>
+      <c r="I164" t="n">
+        <v>753.4909999999982</v>
+      </c>
+      <c r="J164" t="n">
+        <v>168.1309999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2016.3812</v>
+        <v>3943.169</v>
       </c>
       <c r="C165" t="n">
-        <v>-11.8</v>
+        <v>-13.2</v>
       </c>
       <c r="D165" t="n">
-        <v>27498.6494</v>
+        <v>29941.5242</v>
       </c>
       <c r="E165" t="n">
-        <v>15.9</v>
+        <v>12.9</v>
       </c>
       <c r="F165" t="n">
-        <v>894.4912</v>
+        <v>1431.1848</v>
       </c>
       <c r="G165" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
+      </c>
+      <c r="H165" t="n">
+        <v>647.5814</v>
+      </c>
+      <c r="I165" t="n">
+        <v>825.3708000000006</v>
+      </c>
+      <c r="J165" t="n">
+        <v>137.7861</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2688.8036</v>
+        <v>4759.403</v>
       </c>
       <c r="C166" t="n">
-        <v>-13.2</v>
+        <v>-10.4</v>
       </c>
       <c r="D166" t="n">
-        <v>28362.6624</v>
+        <v>31054.6866</v>
       </c>
       <c r="E166" t="n">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="F166" t="n">
-        <v>1125.2677</v>
+        <v>1662.1362</v>
       </c>
       <c r="G166" t="n">
-        <v>14.8</v>
+        <v>17.5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>816.2340000000004</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1113.162400000001</v>
+      </c>
+      <c r="J166" t="n">
+        <v>230.9513999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3295.5876</v>
+        <v>5296.8695</v>
       </c>
       <c r="C167" t="n">
-        <v>-14.8</v>
+        <v>-11.9</v>
       </c>
       <c r="D167" t="n">
-        <v>29116.1534</v>
+        <v>31671.9053</v>
       </c>
       <c r="E167" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="F167" t="n">
-        <v>1293.3987</v>
+        <v>2041.1936</v>
       </c>
       <c r="G167" t="n">
-        <v>14.6</v>
+        <v>23.7</v>
+      </c>
+      <c r="H167" t="n">
+        <v>537.4664999999995</v>
+      </c>
+      <c r="I167" t="n">
+        <v>617.2186999999976</v>
+      </c>
+      <c r="J167" t="n">
+        <v>379.0574000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3943.169</v>
+        <v>5859.7572</v>
       </c>
       <c r="C168" t="n">
-        <v>-13.2</v>
+        <v>-12.1</v>
       </c>
       <c r="D168" t="n">
-        <v>29941.5242</v>
+        <v>32450.5967</v>
       </c>
       <c r="E168" t="n">
-        <v>12.9</v>
+        <v>11.7</v>
       </c>
       <c r="F168" t="n">
-        <v>1431.1848</v>
+        <v>2377.1522</v>
       </c>
       <c r="G168" t="n">
-        <v>12.5</v>
+        <v>16.3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>562.8877000000002</v>
+      </c>
+      <c r="I168" t="n">
+        <v>778.6913999999997</v>
+      </c>
+      <c r="J168" t="n">
+        <v>335.9585999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4759.403</v>
+        <v>6569.1214</v>
       </c>
       <c r="C169" t="n">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="D169" t="n">
-        <v>31054.6866</v>
+        <v>33044.3704</v>
       </c>
       <c r="E169" t="n">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
       <c r="F169" t="n">
-        <v>1662.1362</v>
+        <v>3419.4869</v>
       </c>
       <c r="G169" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>709.3642</v>
+      </c>
+      <c r="I169" t="n">
+        <v>593.7737000000016</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1042.3347</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5437.5059</v>
+        <v>765.312</v>
       </c>
       <c r="C170" t="n">
-        <v>2.7</v>
+        <v>54.4</v>
       </c>
       <c r="D170" t="n">
-        <v>34030.0745</v>
+        <v>28753.5179</v>
       </c>
       <c r="E170" t="n">
-        <v>7.4</v>
+        <v>13.2</v>
       </c>
       <c r="F170" t="n">
-        <v>1951.6096</v>
+        <v>535.2379</v>
       </c>
       <c r="G170" t="n">
-        <v>-4.4</v>
+        <v>6.6</v>
+      </c>
+      <c r="H170" t="n">
+        <v>765.312</v>
+      </c>
+      <c r="I170" t="n">
+        <v>28753.5179</v>
+      </c>
+      <c r="J170" t="n">
+        <v>535.2379</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5913.6512</v>
+        <v>1395.228</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9</v>
+        <v>48.6</v>
       </c>
       <c r="D171" t="n">
-        <v>34529.9288</v>
+        <v>29613.8408</v>
       </c>
       <c r="E171" t="n">
-        <v>6.4</v>
+        <v>13.4</v>
       </c>
       <c r="F171" t="n">
-        <v>2342.637</v>
+        <v>728.3196</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.5</v>
+        <v>5.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>629.9160000000001</v>
+      </c>
+      <c r="I171" t="n">
+        <v>860.3229000000028</v>
+      </c>
+      <c r="J171" t="n">
+        <v>193.0817000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6415</v>
+        <v>1862.8345</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.3</v>
+        <v>35.3</v>
       </c>
       <c r="D172" t="n">
-        <v>35029</v>
+        <v>30199.2576</v>
       </c>
       <c r="E172" t="n">
-        <v>6</v>
+        <v>13.3</v>
       </c>
       <c r="F172" t="n">
-        <v>3629</v>
+        <v>876.0205999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>11</v>
+      </c>
+      <c r="H172" t="n">
+        <v>467.6064999999999</v>
+      </c>
+      <c r="I172" t="n">
+        <v>585.4167999999991</v>
+      </c>
+      <c r="J172" t="n">
+        <v>147.7009999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>765.312</v>
+        <v>2440.681</v>
       </c>
       <c r="C173" t="n">
-        <v>54.4</v>
+        <v>21</v>
       </c>
       <c r="D173" t="n">
-        <v>28753.5179</v>
+        <v>30857.6585</v>
       </c>
       <c r="E173" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="F173" t="n">
-        <v>535.2379</v>
+        <v>1052.4273</v>
       </c>
       <c r="G173" t="n">
-        <v>6.6</v>
+        <v>17.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>577.8465000000001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>658.4009000000005</v>
+      </c>
+      <c r="J173" t="n">
+        <v>176.4067000000001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1395.228</v>
+        <v>3132.435</v>
       </c>
       <c r="C174" t="n">
-        <v>48.6</v>
+        <v>16.5</v>
       </c>
       <c r="D174" t="n">
-        <v>29613.8408</v>
+        <v>31529.2741</v>
       </c>
       <c r="E174" t="n">
-        <v>13.4</v>
+        <v>11.2</v>
       </c>
       <c r="F174" t="n">
-        <v>728.3196</v>
+        <v>1212.7484</v>
       </c>
       <c r="G174" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
+      </c>
+      <c r="H174" t="n">
+        <v>691.7539999999999</v>
+      </c>
+      <c r="I174" t="n">
+        <v>671.6155999999974</v>
+      </c>
+      <c r="J174" t="n">
+        <v>160.3210999999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1862.8345</v>
+        <v>3814.777</v>
       </c>
       <c r="C175" t="n">
-        <v>35.3</v>
+        <v>15.8</v>
       </c>
       <c r="D175" t="n">
-        <v>30199.2576</v>
+        <v>32245.5928</v>
       </c>
       <c r="E175" t="n">
-        <v>13.3</v>
+        <v>10.7</v>
       </c>
       <c r="F175" t="n">
-        <v>876.0205999999999</v>
+        <v>1297.1201</v>
       </c>
       <c r="G175" t="n">
-        <v>11</v>
+        <v>0.3</v>
+      </c>
+      <c r="H175" t="n">
+        <v>682.3420000000001</v>
+      </c>
+      <c r="I175" t="n">
+        <v>716.3186999999998</v>
+      </c>
+      <c r="J175" t="n">
+        <v>84.37170000000015</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2440.681</v>
+        <v>4326.5865</v>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>30857.6585</v>
+        <v>32873.7085</v>
       </c>
       <c r="E176" t="n">
-        <v>12.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F176" t="n">
-        <v>1052.4273</v>
+        <v>1407.394</v>
       </c>
       <c r="G176" t="n">
-        <v>17.7</v>
+        <v>-1.7</v>
+      </c>
+      <c r="H176" t="n">
+        <v>511.8095000000003</v>
+      </c>
+      <c r="I176" t="n">
+        <v>628.1157000000021</v>
+      </c>
+      <c r="J176" t="n">
+        <v>110.2738999999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3132.435</v>
+        <v>4945.8295</v>
       </c>
       <c r="C177" t="n">
-        <v>16.5</v>
+        <v>3.9</v>
       </c>
       <c r="D177" t="n">
-        <v>31529.2741</v>
+        <v>33540.3724</v>
       </c>
       <c r="E177" t="n">
-        <v>11.2</v>
+        <v>8</v>
       </c>
       <c r="F177" t="n">
-        <v>1212.7484</v>
+        <v>1648.5536</v>
       </c>
       <c r="G177" t="n">
-        <v>7.8</v>
+        <v>-0.8</v>
+      </c>
+      <c r="H177" t="n">
+        <v>619.2429999999995</v>
+      </c>
+      <c r="I177" t="n">
+        <v>666.6638999999996</v>
+      </c>
+      <c r="J177" t="n">
+        <v>241.1596</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3814.777</v>
+        <v>5437.5059</v>
       </c>
       <c r="C178" t="n">
-        <v>15.8</v>
+        <v>2.7</v>
       </c>
       <c r="D178" t="n">
-        <v>32245.5928</v>
+        <v>34030.0745</v>
       </c>
       <c r="E178" t="n">
-        <v>10.7</v>
+        <v>7.4</v>
       </c>
       <c r="F178" t="n">
-        <v>1297.1201</v>
+        <v>1951.6096</v>
       </c>
       <c r="G178" t="n">
-        <v>0.3</v>
+        <v>-4.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>491.6764000000003</v>
+      </c>
+      <c r="I178" t="n">
+        <v>489.7021000000022</v>
+      </c>
+      <c r="J178" t="n">
+        <v>303.056</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4326.5865</v>
+        <v>5913.6512</v>
       </c>
       <c r="C179" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D179" t="n">
-        <v>32873.7085</v>
+        <v>34529.9288</v>
       </c>
       <c r="E179" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="F179" t="n">
-        <v>1407.394</v>
+        <v>2342.637</v>
       </c>
       <c r="G179" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>476.1453000000001</v>
+      </c>
+      <c r="I179" t="n">
+        <v>499.8542999999991</v>
+      </c>
+      <c r="J179" t="n">
+        <v>391.0274000000002</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4945.8295</v>
+        <v>6415</v>
       </c>
       <c r="C180" t="n">
-        <v>3.9</v>
+        <v>-2.3</v>
       </c>
       <c r="D180" t="n">
-        <v>33540.3724</v>
+        <v>35029</v>
       </c>
       <c r="E180" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F180" t="n">
-        <v>1648.5536</v>
+        <v>3629</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.8</v>
+        <v>6.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>501.3487999999998</v>
+      </c>
+      <c r="I180" t="n">
+        <v>499.0711999999985</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1286.363</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4943.4081</v>
+        <v>626.7966</v>
       </c>
       <c r="C181" t="n">
-        <v>-9.1</v>
+        <v>-18.1</v>
       </c>
       <c r="D181" t="n">
-        <v>34912.8006</v>
+        <v>30217.9733</v>
       </c>
       <c r="E181" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="F181" t="n">
-        <v>2663.9762</v>
+        <v>673.0531999999999</v>
       </c>
       <c r="G181" t="n">
-        <v>36.5</v>
+        <v>25.7</v>
+      </c>
+      <c r="H181" t="n">
+        <v>626.7966</v>
+      </c>
+      <c r="I181" t="n">
+        <v>30217.9733</v>
+      </c>
+      <c r="J181" t="n">
+        <v>673.0531999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5473.5672</v>
+        <v>1131.316</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.4</v>
+        <v>-18.9</v>
       </c>
       <c r="D182" t="n">
-        <v>35436.2321</v>
+        <v>30771.2644</v>
       </c>
       <c r="E182" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="F182" t="n">
-        <v>2999.1872</v>
+        <v>942.4576</v>
       </c>
       <c r="G182" t="n">
-        <v>28</v>
+        <v>29.4</v>
+      </c>
+      <c r="H182" t="n">
+        <v>504.5194</v>
+      </c>
+      <c r="I182" t="n">
+        <v>553.2910999999986</v>
+      </c>
+      <c r="J182" t="n">
+        <v>269.4044</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6139.6585</v>
+        <v>1709.1468</v>
       </c>
       <c r="C183" t="n">
-        <v>-4.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>36014.6216</v>
+        <v>31372.9224</v>
       </c>
       <c r="E183" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="F183" t="n">
-        <v>4006.5411</v>
+        <v>1116.8697</v>
       </c>
       <c r="G183" t="n">
-        <v>10.4</v>
+        <v>27.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>577.8308</v>
+      </c>
+      <c r="I183" t="n">
+        <v>601.6579999999994</v>
+      </c>
+      <c r="J183" t="n">
+        <v>174.4121</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>626.7966</v>
+        <v>2272.4194</v>
       </c>
       <c r="C184" t="n">
-        <v>-18.1</v>
+        <v>-6.9</v>
       </c>
       <c r="D184" t="n">
-        <v>30217.9733</v>
+        <v>32016.4583</v>
       </c>
       <c r="E184" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="F184" t="n">
-        <v>673.0531999999999</v>
+        <v>1287.7859</v>
       </c>
       <c r="G184" t="n">
-        <v>25.7</v>
+        <v>22.4</v>
+      </c>
+      <c r="H184" t="n">
+        <v>563.2726000000002</v>
+      </c>
+      <c r="I184" t="n">
+        <v>643.5358999999989</v>
+      </c>
+      <c r="J184" t="n">
+        <v>170.9162000000001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1131.316</v>
+        <v>2955.5032</v>
       </c>
       <c r="C185" t="n">
-        <v>-18.9</v>
+        <v>-5.6</v>
       </c>
       <c r="D185" t="n">
-        <v>30771.2644</v>
+        <v>32709.1727</v>
       </c>
       <c r="E185" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F185" t="n">
-        <v>942.4576</v>
+        <v>1590.134</v>
       </c>
       <c r="G185" t="n">
-        <v>29.4</v>
+        <v>31.1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>683.0837999999999</v>
+      </c>
+      <c r="I185" t="n">
+        <v>692.7144000000008</v>
+      </c>
+      <c r="J185" t="n">
+        <v>302.3480999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1709.1468</v>
+        <v>3476.3556</v>
       </c>
       <c r="C186" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="D186" t="n">
-        <v>31372.9224</v>
+        <v>33325.058</v>
       </c>
       <c r="E186" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="F186" t="n">
-        <v>1116.8697</v>
+        <v>1857.8022</v>
       </c>
       <c r="G186" t="n">
-        <v>27.5</v>
+        <v>43.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>520.8523999999998</v>
+      </c>
+      <c r="I186" t="n">
+        <v>615.8852999999981</v>
+      </c>
+      <c r="J186" t="n">
+        <v>267.6682000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2272.4194</v>
+        <v>4047.6277</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.9</v>
+        <v>-6.4</v>
       </c>
       <c r="D187" t="n">
-        <v>32016.4583</v>
+        <v>33848.0421</v>
       </c>
       <c r="E187" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F187" t="n">
-        <v>1287.7859</v>
+        <v>2022.4727</v>
       </c>
       <c r="G187" t="n">
-        <v>22.4</v>
+        <v>43.7</v>
+      </c>
+      <c r="H187" t="n">
+        <v>571.2721000000001</v>
+      </c>
+      <c r="I187" t="n">
+        <v>522.9841000000015</v>
+      </c>
+      <c r="J187" t="n">
+        <v>164.6704999999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2955.5032</v>
+        <v>4478.0561</v>
       </c>
       <c r="C188" t="n">
-        <v>-5.6</v>
+        <v>-9.5</v>
       </c>
       <c r="D188" t="n">
-        <v>32709.1727</v>
+        <v>34365.7893</v>
       </c>
       <c r="E188" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="F188" t="n">
-        <v>1590.134</v>
+        <v>2243.5698</v>
       </c>
       <c r="G188" t="n">
-        <v>31.1</v>
+        <v>36.1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>430.4283999999998</v>
+      </c>
+      <c r="I188" t="n">
+        <v>517.747199999998</v>
+      </c>
+      <c r="J188" t="n">
+        <v>221.0971000000002</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3476.3556</v>
+        <v>4943.4081</v>
       </c>
       <c r="C189" t="n">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="D189" t="n">
-        <v>33325.058</v>
+        <v>34912.8006</v>
       </c>
       <c r="E189" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="F189" t="n">
-        <v>1857.8022</v>
+        <v>2663.9762</v>
       </c>
       <c r="G189" t="n">
-        <v>43.2</v>
+        <v>36.5</v>
+      </c>
+      <c r="H189" t="n">
+        <v>465.3519999999999</v>
+      </c>
+      <c r="I189" t="n">
+        <v>547.0113000000056</v>
+      </c>
+      <c r="J189" t="n">
+        <v>420.4063999999998</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4047.6277</v>
+        <v>5473.5672</v>
       </c>
       <c r="C190" t="n">
-        <v>-6.4</v>
+        <v>-7.4</v>
       </c>
       <c r="D190" t="n">
-        <v>33848.0421</v>
+        <v>35436.2321</v>
       </c>
       <c r="E190" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2022.4727</v>
+        <v>2999.1872</v>
       </c>
       <c r="G190" t="n">
-        <v>43.7</v>
+        <v>28</v>
+      </c>
+      <c r="H190" t="n">
+        <v>530.1591000000008</v>
+      </c>
+      <c r="I190" t="n">
+        <v>523.4314999999988</v>
+      </c>
+      <c r="J190" t="n">
+        <v>335.2109999999998</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4478.0561</v>
+        <v>6139.6585</v>
       </c>
       <c r="C191" t="n">
-        <v>-9.5</v>
+        <v>-4.3</v>
       </c>
       <c r="D191" t="n">
-        <v>34365.7893</v>
+        <v>36014.6216</v>
       </c>
       <c r="E191" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F191" t="n">
-        <v>2243.5698</v>
+        <v>4006.5411</v>
       </c>
       <c r="G191" t="n">
-        <v>36.1</v>
+        <v>10.4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>666.0912999999991</v>
+      </c>
+      <c r="I191" t="n">
+        <v>578.3894999999975</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1007.3539</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4906.999</v>
+        <v>524.1418</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.7</v>
+        <v>-16.4</v>
       </c>
       <c r="D192" t="n">
-        <v>34759.7648</v>
+        <v>30381.1613</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F192" t="n">
-        <v>2149.2719</v>
+        <v>610.5823</v>
       </c>
       <c r="G192" t="n">
-        <v>-19.3</v>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>524.1418</v>
+      </c>
+      <c r="I192" t="n">
+        <v>30381.1613</v>
+      </c>
+      <c r="J192" t="n">
+        <v>610.5823</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>5488.17</v>
+        <v>1105.1208</v>
       </c>
       <c r="C193" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>30848.6779</v>
+      </c>
+      <c r="E193" t="n">
         <v>0.3</v>
       </c>
-      <c r="D193" t="n">
-        <v>35371.574</v>
-      </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
+        <v>940.9374</v>
+      </c>
+      <c r="G193" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F193" t="n">
-        <v>2611.0374</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-12.9</v>
+      <c r="H193" t="n">
+        <v>580.9789999999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>467.516599999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>330.3551</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6049.0423</v>
+        <v>1521.8343</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.5</v>
+        <v>-11</v>
       </c>
       <c r="D194" t="n">
-        <v>35842.2323</v>
+        <v>31271.1628</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F194" t="n">
-        <v>3884.0404</v>
+        <v>1101.5295</v>
       </c>
       <c r="G194" t="n">
-        <v>-3.1</v>
+        <v>-1.4</v>
+      </c>
+      <c r="H194" t="n">
+        <v>416.7135000000001</v>
+      </c>
+      <c r="I194" t="n">
+        <v>422.4848999999995</v>
+      </c>
+      <c r="J194" t="n">
+        <v>160.5921000000001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>524.1418</v>
+        <v>2085.9705</v>
       </c>
       <c r="C195" t="n">
-        <v>-16.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D195" t="n">
-        <v>30381.1613</v>
+        <v>31805.9839</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="F195" t="n">
-        <v>610.5823</v>
+        <v>1312.496</v>
       </c>
       <c r="G195" t="n">
-        <v>-9.300000000000001</v>
+        <v>1.9</v>
+      </c>
+      <c r="H195" t="n">
+        <v>564.1361999999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>534.821100000001</v>
+      </c>
+      <c r="J195" t="n">
+        <v>210.9665</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1105.1208</v>
+        <v>2737.9892</v>
       </c>
       <c r="C196" t="n">
-        <v>-2.3</v>
+        <v>-7.4</v>
       </c>
       <c r="D196" t="n">
-        <v>30848.6779</v>
+        <v>32524.6804</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="F196" t="n">
-        <v>940.9374</v>
+        <v>1495.199</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.2</v>
+        <v>-6</v>
+      </c>
+      <c r="H196" t="n">
+        <v>652.0187000000001</v>
+      </c>
+      <c r="I196" t="n">
+        <v>718.6965000000018</v>
+      </c>
+      <c r="J196" t="n">
+        <v>182.703</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1521.8343</v>
+        <v>3231.6873</v>
       </c>
       <c r="C197" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="D197" t="n">
-        <v>31271.1628</v>
+        <v>33000.5124</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="F197" t="n">
-        <v>1101.5295</v>
+        <v>1669.9655</v>
       </c>
       <c r="G197" t="n">
-        <v>-1.4</v>
+        <v>-10.1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>493.6981000000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>475.8319999999985</v>
+      </c>
+      <c r="J197" t="n">
+        <v>174.7665</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2085.9705</v>
+        <v>3727.4532</v>
       </c>
       <c r="C198" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="D198" t="n">
-        <v>31805.9839</v>
+        <v>33488.2686</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="F198" t="n">
-        <v>1312.496</v>
+        <v>1790.131</v>
       </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>-11.5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>495.7658999999999</v>
+      </c>
+      <c r="I198" t="n">
+        <v>487.7562000000034</v>
+      </c>
+      <c r="J198" t="n">
+        <v>120.1655000000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2737.9892</v>
+        <v>4331.5531</v>
       </c>
       <c r="C199" t="n">
-        <v>-7.4</v>
+        <v>-3.3</v>
       </c>
       <c r="D199" t="n">
-        <v>32524.6804</v>
+        <v>34166.9905</v>
       </c>
       <c r="E199" t="n">
         <v>-0.6</v>
       </c>
       <c r="F199" t="n">
-        <v>1495.199</v>
+        <v>1938.7346</v>
       </c>
       <c r="G199" t="n">
-        <v>-6</v>
+        <v>-13.6</v>
+      </c>
+      <c r="H199" t="n">
+        <v>604.0999000000002</v>
+      </c>
+      <c r="I199" t="n">
+        <v>678.7218999999968</v>
+      </c>
+      <c r="J199" t="n">
+        <v>148.6035999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3231.6873</v>
+        <v>4906.999</v>
       </c>
       <c r="C200" t="n">
-        <v>-7</v>
+        <v>-0.7</v>
       </c>
       <c r="D200" t="n">
-        <v>33000.5124</v>
+        <v>34759.7648</v>
       </c>
       <c r="E200" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="F200" t="n">
-        <v>1669.9655</v>
+        <v>2149.2719</v>
       </c>
       <c r="G200" t="n">
-        <v>-10.1</v>
+        <v>-19.3</v>
+      </c>
+      <c r="H200" t="n">
+        <v>575.4458999999997</v>
+      </c>
+      <c r="I200" t="n">
+        <v>592.7742999999973</v>
+      </c>
+      <c r="J200" t="n">
+        <v>210.5373000000002</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3727.4532</v>
+        <v>5488.17</v>
       </c>
       <c r="C201" t="n">
-        <v>-7.9</v>
+        <v>0.3</v>
       </c>
       <c r="D201" t="n">
-        <v>33488.2686</v>
+        <v>35371.574</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F201" t="n">
-        <v>1790.131</v>
+        <v>2611.0374</v>
       </c>
       <c r="G201" t="n">
-        <v>-11.5</v>
+        <v>-12.9</v>
+      </c>
+      <c r="H201" t="n">
+        <v>581.1710000000003</v>
+      </c>
+      <c r="I201" t="n">
+        <v>611.8092000000033</v>
+      </c>
+      <c r="J201" t="n">
+        <v>461.7655</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4331.5531</v>
+        <v>6049.0423</v>
       </c>
       <c r="C202" t="n">
-        <v>-3.3</v>
+        <v>-1.5</v>
       </c>
       <c r="D202" t="n">
-        <v>34166.9905</v>
+        <v>35842.2323</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="F202" t="n">
-        <v>1938.7346</v>
+        <v>3884.0404</v>
       </c>
       <c r="G202" t="n">
-        <v>-13.6</v>
+        <v>-3.1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>560.8723</v>
+      </c>
+      <c r="I202" t="n">
+        <v>470.6583000000028</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1273.003</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5814.7148</v>
+        <v>723.3176999999999</v>
       </c>
       <c r="C203" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
-        <v>36174.0241</v>
+        <v>30633.6966</v>
       </c>
       <c r="E203" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="F203" t="n">
-        <v>2033.6945</v>
+        <v>431.6692</v>
       </c>
       <c r="G203" t="n">
-        <v>-5.4</v>
+        <v>-29.3</v>
+      </c>
+      <c r="H203" t="n">
+        <v>723.3176999999999</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30633.6966</v>
+      </c>
+      <c r="J203" t="n">
+        <v>431.6692</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6347.9313</v>
+        <v>1301.9265</v>
       </c>
       <c r="C204" t="n">
-        <v>15.7</v>
+        <v>17.8</v>
       </c>
       <c r="D204" t="n">
-        <v>36782.2186</v>
+        <v>31277.5425</v>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="F204" t="n">
-        <v>2356.8724</v>
+        <v>650.8709</v>
       </c>
       <c r="G204" t="n">
-        <v>-9.699999999999999</v>
+        <v>-30.8</v>
+      </c>
+      <c r="H204" t="n">
+        <v>578.6088000000001</v>
+      </c>
+      <c r="I204" t="n">
+        <v>643.8459000000003</v>
+      </c>
+      <c r="J204" t="n">
+        <v>219.2017</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7083.5862</v>
+        <v>1920.8742</v>
       </c>
       <c r="C205" t="n">
-        <v>17.1</v>
+        <v>26.2</v>
       </c>
       <c r="D205" t="n">
-        <v>37251.817</v>
+        <v>32055.4938</v>
       </c>
       <c r="E205" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="F205" t="n">
-        <v>3923.3927</v>
+        <v>760.319</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>-31</v>
+      </c>
+      <c r="H205" t="n">
+        <v>618.9476999999999</v>
+      </c>
+      <c r="I205" t="n">
+        <v>777.9513000000006</v>
+      </c>
+      <c r="J205" t="n">
+        <v>109.4481</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>723.3176999999999</v>
+        <v>2451.3997</v>
       </c>
       <c r="C206" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="D206" t="n">
-        <v>30633.6966</v>
+        <v>32622.6021</v>
       </c>
       <c r="E206" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="F206" t="n">
-        <v>431.6692</v>
+        <v>952.0248</v>
       </c>
       <c r="G206" t="n">
-        <v>-29.3</v>
+        <v>-27.5</v>
+      </c>
+      <c r="H206" t="n">
+        <v>530.5255</v>
+      </c>
+      <c r="I206" t="n">
+        <v>567.1082999999999</v>
+      </c>
+      <c r="J206" t="n">
+        <v>191.7058000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1301.9265</v>
+        <v>3265.2258</v>
       </c>
       <c r="C207" t="n">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="D207" t="n">
-        <v>31277.5425</v>
+        <v>33584.9508</v>
       </c>
       <c r="E207" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="F207" t="n">
-        <v>650.8709</v>
+        <v>1199.6481</v>
       </c>
       <c r="G207" t="n">
-        <v>-30.8</v>
+        <v>-19.8</v>
+      </c>
+      <c r="H207" t="n">
+        <v>813.8261000000002</v>
+      </c>
+      <c r="I207" t="n">
+        <v>962.3486999999986</v>
+      </c>
+      <c r="J207" t="n">
+        <v>247.6233000000001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1920.8742</v>
+        <v>3930.0898</v>
       </c>
       <c r="C208" t="n">
-        <v>26.2</v>
+        <v>21.6</v>
       </c>
       <c r="D208" t="n">
-        <v>32055.4938</v>
+        <v>34416.3371</v>
       </c>
       <c r="E208" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="F208" t="n">
-        <v>760.319</v>
+        <v>1407.4686</v>
       </c>
       <c r="G208" t="n">
-        <v>-31</v>
+        <v>-15.7</v>
+      </c>
+      <c r="H208" t="n">
+        <v>664.864</v>
+      </c>
+      <c r="I208" t="n">
+        <v>831.3862999999983</v>
+      </c>
+      <c r="J208" t="n">
+        <v>207.8204999999998</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2451.3997</v>
+        <v>4480.3989</v>
       </c>
       <c r="C209" t="n">
-        <v>17.5</v>
+        <v>20.2</v>
       </c>
       <c r="D209" t="n">
-        <v>32622.6021</v>
+        <v>34881.5954</v>
       </c>
       <c r="E209" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="F209" t="n">
-        <v>952.0248</v>
+        <v>1543.5013</v>
       </c>
       <c r="G209" t="n">
-        <v>-27.5</v>
+        <v>-13.8</v>
+      </c>
+      <c r="H209" t="n">
+        <v>550.3090999999999</v>
+      </c>
+      <c r="I209" t="n">
+        <v>465.2583000000013</v>
+      </c>
+      <c r="J209" t="n">
+        <v>136.0327</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3265.2258</v>
+        <v>5010.1934</v>
       </c>
       <c r="C210" t="n">
-        <v>19.3</v>
+        <v>15.7</v>
       </c>
       <c r="D210" t="n">
-        <v>33584.9508</v>
+        <v>35354.7322</v>
       </c>
       <c r="E210" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F210" t="n">
-        <v>1199.6481</v>
+        <v>1739.6977</v>
       </c>
       <c r="G210" t="n">
-        <v>-19.8</v>
+        <v>-10.3</v>
+      </c>
+      <c r="H210" t="n">
+        <v>529.7945</v>
+      </c>
+      <c r="I210" t="n">
+        <v>473.1368000000002</v>
+      </c>
+      <c r="J210" t="n">
+        <v>196.1964</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3930.0898</v>
+        <v>5814.7148</v>
       </c>
       <c r="C211" t="n">
-        <v>21.6</v>
+        <v>18.5</v>
       </c>
       <c r="D211" t="n">
-        <v>34416.3371</v>
+        <v>36174.0241</v>
       </c>
       <c r="E211" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="F211" t="n">
-        <v>1407.4686</v>
+        <v>2033.6945</v>
       </c>
       <c r="G211" t="n">
-        <v>-15.7</v>
+        <v>-5.4</v>
+      </c>
+      <c r="H211" t="n">
+        <v>804.5213999999996</v>
+      </c>
+      <c r="I211" t="n">
+        <v>819.2919000000038</v>
+      </c>
+      <c r="J211" t="n">
+        <v>293.9968000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4480.3989</v>
+        <v>6347.9313</v>
       </c>
       <c r="C212" t="n">
-        <v>20.2</v>
+        <v>15.7</v>
       </c>
       <c r="D212" t="n">
-        <v>34881.5954</v>
+        <v>36782.2186</v>
       </c>
       <c r="E212" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>1543.5013</v>
+        <v>2356.8724</v>
       </c>
       <c r="G212" t="n">
-        <v>-13.8</v>
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>533.2165000000005</v>
+      </c>
+      <c r="I212" t="n">
+        <v>608.1944999999978</v>
+      </c>
+      <c r="J212" t="n">
+        <v>323.1779000000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>5010.1934</v>
+        <v>7083.5862</v>
       </c>
       <c r="C213" t="n">
-        <v>15.7</v>
+        <v>17.1</v>
       </c>
       <c r="D213" t="n">
-        <v>35354.7322</v>
+        <v>37251.817</v>
       </c>
       <c r="E213" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F213" t="n">
-        <v>1739.6977</v>
+        <v>3923.3927</v>
       </c>
       <c r="G213" t="n">
-        <v>-10.3</v>
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>735.6548999999995</v>
+      </c>
+      <c r="I213" t="n">
+        <v>469.5984000000026</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1566.5203</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>5395.7642</v>
+        <v>303.7153</v>
       </c>
       <c r="C214" t="n">
-        <v>-7.2</v>
+        <v>-58</v>
       </c>
       <c r="D214" t="n">
-        <v>35693.4035</v>
+        <v>29641.736</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.3</v>
+        <v>-3.2</v>
       </c>
       <c r="F214" t="n">
-        <v>1631.545</v>
+        <v>396.7834</v>
       </c>
       <c r="G214" t="n">
-        <v>-19.8</v>
+        <v>-8.1</v>
+      </c>
+      <c r="H214" t="n">
+        <v>303.7153</v>
+      </c>
+      <c r="I214" t="n">
+        <v>29641.736</v>
+      </c>
+      <c r="J214" t="n">
+        <v>396.7834</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5841.7048</v>
+        <v>806.6721</v>
       </c>
       <c r="C215" t="n">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="D215" t="n">
-        <v>36308.4192</v>
+        <v>30482.0169</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.3</v>
+        <v>-2.5</v>
       </c>
       <c r="F215" t="n">
-        <v>1898.6576</v>
+        <v>613.3955</v>
       </c>
       <c r="G215" t="n">
-        <v>-19.4</v>
+        <v>-5.8</v>
+      </c>
+      <c r="H215" t="n">
+        <v>502.9568</v>
+      </c>
+      <c r="I215" t="n">
+        <v>840.2808999999979</v>
+      </c>
+      <c r="J215" t="n">
+        <v>216.6121</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6603.709</v>
+        <v>1369.5092</v>
       </c>
       <c r="C216" t="n">
-        <v>-6.8</v>
+        <v>-28.7</v>
       </c>
       <c r="D216" t="n">
-        <v>37083.5821</v>
+        <v>31348.1047</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.5</v>
+        <v>-2.2</v>
       </c>
       <c r="F216" t="n">
-        <v>3041.5921</v>
+        <v>703.3414</v>
       </c>
       <c r="G216" t="n">
-        <v>-22.5</v>
+        <v>-7.5</v>
+      </c>
+      <c r="H216" t="n">
+        <v>562.8371</v>
+      </c>
+      <c r="I216" t="n">
+        <v>866.0878000000012</v>
+      </c>
+      <c r="J216" t="n">
+        <v>89.94590000000005</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>303.7153</v>
+        <v>2172.8585</v>
       </c>
       <c r="C217" t="n">
-        <v>-58</v>
+        <v>-11.4</v>
       </c>
       <c r="D217" t="n">
-        <v>29641.736</v>
+        <v>32114.2108</v>
       </c>
       <c r="E217" t="n">
-        <v>-3.2</v>
+        <v>-1.6</v>
       </c>
       <c r="F217" t="n">
-        <v>396.7834</v>
+        <v>884.8466</v>
       </c>
       <c r="G217" t="n">
-        <v>-8.1</v>
+        <v>-7.1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>803.3492999999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>766.1061000000009</v>
+      </c>
+      <c r="J217" t="n">
+        <v>181.5051999999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>806.6721</v>
+        <v>2852.6916</v>
       </c>
       <c r="C218" t="n">
-        <v>-38</v>
+        <v>-12.6</v>
       </c>
       <c r="D218" t="n">
-        <v>30482.0169</v>
+        <v>32823.5385</v>
       </c>
       <c r="E218" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="F218" t="n">
-        <v>613.3955</v>
+        <v>1028.9391</v>
       </c>
       <c r="G218" t="n">
-        <v>-5.8</v>
+        <v>-14.2</v>
+      </c>
+      <c r="H218" t="n">
+        <v>679.8331000000003</v>
+      </c>
+      <c r="I218" t="n">
+        <v>709.3277000000016</v>
+      </c>
+      <c r="J218" t="n">
+        <v>144.0925000000001</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1369.5092</v>
+        <v>3680.536</v>
       </c>
       <c r="C219" t="n">
-        <v>-28.7</v>
+        <v>-6.3</v>
       </c>
       <c r="D219" t="n">
-        <v>31348.1047</v>
+        <v>33930.7085</v>
       </c>
       <c r="E219" t="n">
-        <v>-2.2</v>
+        <v>-1.4</v>
       </c>
       <c r="F219" t="n">
-        <v>703.3414</v>
+        <v>1206.537</v>
       </c>
       <c r="G219" t="n">
-        <v>-7.5</v>
+        <v>-14.3</v>
+      </c>
+      <c r="H219" t="n">
+        <v>827.8444</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1107.169999999998</v>
+      </c>
+      <c r="J219" t="n">
+        <v>177.5979</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2172.8585</v>
+        <v>4220.1482</v>
       </c>
       <c r="C220" t="n">
-        <v>-11.4</v>
+        <v>-5.8</v>
       </c>
       <c r="D220" t="n">
-        <v>32114.2108</v>
+        <v>34498.8956</v>
       </c>
       <c r="E220" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="F220" t="n">
-        <v>884.8466</v>
+        <v>1282.0016</v>
       </c>
       <c r="G220" t="n">
-        <v>-7.1</v>
+        <v>-16.9</v>
+      </c>
+      <c r="H220" t="n">
+        <v>539.6121999999996</v>
+      </c>
+      <c r="I220" t="n">
+        <v>568.1871000000028</v>
+      </c>
+      <c r="J220" t="n">
+        <v>75.46460000000002</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2852.6916</v>
+        <v>4825.8974</v>
       </c>
       <c r="C221" t="n">
-        <v>-12.6</v>
+        <v>-3.7</v>
       </c>
       <c r="D221" t="n">
-        <v>32823.5385</v>
+        <v>35121.1626</v>
       </c>
       <c r="E221" t="n">
-        <v>-2.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F221" t="n">
-        <v>1028.9391</v>
+        <v>1415.8411</v>
       </c>
       <c r="G221" t="n">
-        <v>-14.2</v>
+        <v>-18.6</v>
+      </c>
+      <c r="H221" t="n">
+        <v>605.7492000000002</v>
+      </c>
+      <c r="I221" t="n">
+        <v>622.2669999999998</v>
+      </c>
+      <c r="J221" t="n">
+        <v>133.8395</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3680.536</v>
+        <v>5395.7642</v>
       </c>
       <c r="C222" t="n">
-        <v>-6.3</v>
+        <v>-7.2</v>
       </c>
       <c r="D222" t="n">
-        <v>33930.7085</v>
+        <v>35693.4035</v>
       </c>
       <c r="E222" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="F222" t="n">
-        <v>1206.537</v>
+        <v>1631.545</v>
       </c>
       <c r="G222" t="n">
-        <v>-14.3</v>
+        <v>-19.8</v>
+      </c>
+      <c r="H222" t="n">
+        <v>569.8667999999998</v>
+      </c>
+      <c r="I222" t="n">
+        <v>572.2408999999971</v>
+      </c>
+      <c r="J222" t="n">
+        <v>215.7039</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4220.1482</v>
+        <v>5841.7048</v>
       </c>
       <c r="C223" t="n">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
       <c r="D223" t="n">
-        <v>34498.8956</v>
+        <v>36308.4192</v>
       </c>
       <c r="E223" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="F223" t="n">
-        <v>1282.0016</v>
+        <v>1898.6576</v>
       </c>
       <c r="G223" t="n">
-        <v>-16.9</v>
+        <v>-19.4</v>
+      </c>
+      <c r="H223" t="n">
+        <v>445.9406000000008</v>
+      </c>
+      <c r="I223" t="n">
+        <v>615.0156999999963</v>
+      </c>
+      <c r="J223" t="n">
+        <v>267.1125999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4825.8974</v>
+        <v>6603.709</v>
       </c>
       <c r="C224" t="n">
-        <v>-3.7</v>
+        <v>-6.8</v>
       </c>
       <c r="D224" t="n">
-        <v>35121.1626</v>
+        <v>37083.5821</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="F224" t="n">
-        <v>1415.8411</v>
+        <v>3041.5921</v>
       </c>
       <c r="G224" t="n">
-        <v>-18.6</v>
+        <v>-22.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>762.0041999999994</v>
+      </c>
+      <c r="I224" t="n">
+        <v>775.162900000003</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1142.9345</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4145.1231</v>
+        <v>451.8296</v>
       </c>
       <c r="C225" t="n">
-        <v>-23.2</v>
+        <v>48.8</v>
       </c>
       <c r="D225" t="n">
-        <v>36378.1798</v>
+        <v>31802.2271</v>
       </c>
       <c r="E225" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="F225" t="n">
-        <v>1851.2203</v>
+        <v>438.6158</v>
       </c>
       <c r="G225" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
+      </c>
+      <c r="H225" t="n">
+        <v>451.8296</v>
+      </c>
+      <c r="I225" t="n">
+        <v>31802.2271</v>
+      </c>
+      <c r="J225" t="n">
+        <v>438.6158</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4713.0921</v>
+        <v>863.0064</v>
       </c>
       <c r="C226" t="n">
-        <v>-19.3</v>
+        <v>7</v>
       </c>
       <c r="D226" t="n">
-        <v>37125.9024</v>
+        <v>32326.1842</v>
       </c>
       <c r="E226" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="F226" t="n">
-        <v>2217.0918</v>
+        <v>641.3895</v>
       </c>
       <c r="G226" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
+      </c>
+      <c r="H226" t="n">
+        <v>411.1768</v>
+      </c>
+      <c r="I226" t="n">
+        <v>523.9570999999996</v>
+      </c>
+      <c r="J226" t="n">
+        <v>202.7737</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>5223.8877</v>
+        <v>1269.7842</v>
       </c>
       <c r="C227" t="n">
-        <v>-20.9</v>
+        <v>-7.3</v>
       </c>
       <c r="D227" t="n">
-        <v>37729.601</v>
+        <v>32777.5029</v>
       </c>
       <c r="E227" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="F227" t="n">
-        <v>3375.7555</v>
+        <v>757.0877</v>
       </c>
       <c r="G227" t="n">
-        <v>11</v>
+        <v>7.6</v>
+      </c>
+      <c r="H227" t="n">
+        <v>406.7778000000001</v>
+      </c>
+      <c r="I227" t="n">
+        <v>451.3186999999998</v>
+      </c>
+      <c r="J227" t="n">
+        <v>115.6982</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>451.8296</v>
+        <v>1732.5776</v>
       </c>
       <c r="C228" t="n">
-        <v>48.8</v>
+        <v>-20.3</v>
       </c>
       <c r="D228" t="n">
-        <v>31802.2271</v>
+        <v>33212.1249</v>
       </c>
       <c r="E228" t="n">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
       <c r="F228" t="n">
-        <v>438.6158</v>
+        <v>947.1194</v>
       </c>
       <c r="G228" t="n">
-        <v>10.5</v>
+        <v>7</v>
+      </c>
+      <c r="H228" t="n">
+        <v>462.7934</v>
+      </c>
+      <c r="I228" t="n">
+        <v>434.622000000003</v>
+      </c>
+      <c r="J228" t="n">
+        <v>190.0317</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>863.0064</v>
+        <v>2424.7017</v>
       </c>
       <c r="C229" t="n">
-        <v>7</v>
+        <v>-15</v>
       </c>
       <c r="D229" t="n">
-        <v>32326.1842</v>
+        <v>34256.2362</v>
       </c>
       <c r="E229" t="n">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="F229" t="n">
-        <v>641.3895</v>
+        <v>1245.1681</v>
       </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>21</v>
+      </c>
+      <c r="H229" t="n">
+        <v>692.1241</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1044.111299999997</v>
+      </c>
+      <c r="J229" t="n">
+        <v>298.0487000000001</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1269.7842</v>
+        <v>2948.0749</v>
       </c>
       <c r="C230" t="n">
-        <v>-7.3</v>
+        <v>-19.9</v>
       </c>
       <c r="D230" t="n">
-        <v>32777.5029</v>
+        <v>34822.8204</v>
       </c>
       <c r="E230" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="F230" t="n">
-        <v>757.0877</v>
+        <v>1412.5885</v>
       </c>
       <c r="G230" t="n">
-        <v>7.6</v>
+        <v>17.1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>523.3732</v>
+      </c>
+      <c r="I230" t="n">
+        <v>566.5841999999975</v>
+      </c>
+      <c r="J230" t="n">
+        <v>167.4204</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1732.5776</v>
+        <v>3316.1997</v>
       </c>
       <c r="C231" t="n">
-        <v>-20.3</v>
+        <v>-21.4</v>
       </c>
       <c r="D231" t="n">
-        <v>33212.1249</v>
+        <v>35271.3182</v>
       </c>
       <c r="E231" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="F231" t="n">
-        <v>947.1194</v>
+        <v>1555.9334</v>
       </c>
       <c r="G231" t="n">
-        <v>7</v>
+        <v>21.4</v>
+      </c>
+      <c r="H231" t="n">
+        <v>368.1248000000001</v>
+      </c>
+      <c r="I231" t="n">
+        <v>448.4978000000046</v>
+      </c>
+      <c r="J231" t="n">
+        <v>143.3448999999998</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2424.7017</v>
+        <v>3847.1341</v>
       </c>
       <c r="C232" t="n">
-        <v>-15</v>
+        <v>-20.3</v>
       </c>
       <c r="D232" t="n">
-        <v>34256.2362</v>
+        <v>35992.7825</v>
       </c>
       <c r="E232" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="F232" t="n">
-        <v>1245.1681</v>
+        <v>1662.1926</v>
       </c>
       <c r="G232" t="n">
-        <v>21</v>
+        <v>17.4</v>
+      </c>
+      <c r="H232" t="n">
+        <v>530.9344000000001</v>
+      </c>
+      <c r="I232" t="n">
+        <v>721.4642999999996</v>
+      </c>
+      <c r="J232" t="n">
+        <v>106.2592000000002</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2948.0749</v>
+        <v>4145.1231</v>
       </c>
       <c r="C233" t="n">
-        <v>-19.9</v>
+        <v>-23.2</v>
       </c>
       <c r="D233" t="n">
-        <v>34822.8204</v>
+        <v>36378.1798</v>
       </c>
       <c r="E233" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="F233" t="n">
-        <v>1412.5885</v>
+        <v>1851.2203</v>
       </c>
       <c r="G233" t="n">
-        <v>17.1</v>
+        <v>13.5</v>
+      </c>
+      <c r="H233" t="n">
+        <v>297.9889999999996</v>
+      </c>
+      <c r="I233" t="n">
+        <v>385.3972999999969</v>
+      </c>
+      <c r="J233" t="n">
+        <v>189.0276999999999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3316.1997</v>
+        <v>4713.0921</v>
       </c>
       <c r="C234" t="n">
-        <v>-21.4</v>
+        <v>-19.3</v>
       </c>
       <c r="D234" t="n">
-        <v>35271.3182</v>
+        <v>37125.9024</v>
       </c>
       <c r="E234" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="F234" t="n">
-        <v>1555.9334</v>
+        <v>2217.0918</v>
       </c>
       <c r="G234" t="n">
-        <v>21.4</v>
+        <v>16.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>567.9690000000001</v>
+      </c>
+      <c r="I234" t="n">
+        <v>747.722600000001</v>
+      </c>
+      <c r="J234" t="n">
+        <v>365.8715000000002</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3847.1341</v>
+        <v>5223.8877</v>
       </c>
       <c r="C235" t="n">
-        <v>-20.3</v>
+        <v>-20.9</v>
       </c>
       <c r="D235" t="n">
-        <v>35992.7825</v>
+        <v>37729.601</v>
       </c>
       <c r="E235" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="F235" t="n">
-        <v>1662.1926</v>
+        <v>3375.7555</v>
       </c>
       <c r="G235" t="n">
-        <v>17.4</v>
+        <v>11</v>
+      </c>
+      <c r="H235" t="n">
+        <v>510.7956000000004</v>
+      </c>
+      <c r="I235" t="n">
+        <v>603.6986000000034</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1158.6637</v>
       </c>
     </row>
   </sheetData>
